--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -765,10 +765,10 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.62</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J3" t="n">
         <v>4.5</v>
@@ -953,10 +953,10 @@
         <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>3.4</v>
@@ -965,7 +965,7 @@
         <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="T3" t="n">
         <v>2.05</v>
@@ -1059,13 +1059,13 @@
         <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>451</v>
@@ -1133,16 +1133,16 @@
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1324,7 +1324,7 @@
         <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S5" t="n">
         <v>1.39</v>
@@ -1737,22 +1737,22 @@
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
         <v>8.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
         <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -1919,22 +1919,22 @@
         <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
         <v>8.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
         <v>3.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -1952,7 +1952,7 @@
         <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
@@ -2083,40 +2083,40 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
         <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
         <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
         <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="R11" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2140,7 +2140,7 @@
         <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
         <v>21</v>
@@ -2188,7 +2188,7 @@
         <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
         <v>51</v>
@@ -2212,7 +2212,7 @@
         <v>4.75</v>
       </c>
       <c r="AX11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY11" t="n">
         <v>26</v>
@@ -2274,31 +2274,31 @@
         <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
         <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2307,16 +2307,16 @@
         <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
         <v>7</v>
       </c>
       <c r="X12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
@@ -2331,7 +2331,7 @@
         <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
@@ -2394,7 +2394,7 @@
         <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY12" t="n">
         <v>34</v>
@@ -2453,7 +2453,7 @@
         <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
         <v>3.5</v>
@@ -2489,10 +2489,10 @@
         <v>2.25</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
         <v>6.5</v>
@@ -2580,7 +2580,7 @@
         <v>34</v>
       </c>
       <c r="AZ13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA13" t="n">
         <v>101</v>
@@ -2839,10 +2839,10 @@
         <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
@@ -3069,7 +3069,7 @@
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
         <v>34</v>
@@ -3090,7 +3090,7 @@
         <v>151</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO16" t="n">
         <v>7.5</v>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H17" t="n">
         <v>4.33</v>
@@ -3191,13 +3191,13 @@
         <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3355,31 +3355,31 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
         <v>3.2</v>
@@ -3409,34 +3409,34 @@
         <v>10</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
         <v>19</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
       </c>
       <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH18" t="n">
         <v>17</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>15</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
@@ -3451,13 +3451,13 @@
         <v>41</v>
       </c>
       <c r="AM18" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3469,13 +3469,13 @@
         <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -3496,7 +3496,7 @@
         <v>81</v>
       </c>
       <c r="BB18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC18" t="n">
         <v>126</v>
@@ -3555,13 +3555,13 @@
         <v>3.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
         <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
         <v>3.5</v>
@@ -3737,13 +3737,13 @@
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3866,7 +3866,7 @@
         <v>126</v>
       </c>
       <c r="BD20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21">
@@ -3901,31 +3901,31 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J21" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K21" t="n">
         <v>2.38</v>
       </c>
       <c r="L21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
         <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P21" t="n">
         <v>4.5</v>
@@ -3943,22 +3943,22 @@
         <v>3.4</v>
       </c>
       <c r="U21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W21" t="n">
+        <v>9</v>
+      </c>
+      <c r="X21" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X21" t="n">
-        <v>10</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA21" t="n">
         <v>13</v>
@@ -3970,10 +3970,10 @@
         <v>15</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
         <v>41</v>
@@ -3985,25 +3985,25 @@
         <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
         <v>41</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
         <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN21" t="n">
         <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP21" t="n">
         <v>17</v>
@@ -4033,7 +4033,7 @@
         <v>21</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ21" t="n">
         <v>67</v>
@@ -4113,10 +4113,10 @@
         <v>3.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R22" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S22" t="n">
         <v>1.36</v>
@@ -4265,13 +4265,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
@@ -4280,25 +4280,25 @@
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="R23" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4331,16 +4331,16 @@
         <v>34</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="n">
         <v>8</v>
@@ -4355,10 +4355,10 @@
         <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM23" t="n">
         <v>201</v>
@@ -4397,13 +4397,13 @@
         <v>12</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ23" t="n">
         <v>41</v>
       </c>
       <c r="BA23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB23" t="n">
         <v>151</v>
@@ -4468,16 +4468,16 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
         <v>2</v>
@@ -4594,7 +4594,7 @@
         <v>126</v>
       </c>
       <c r="BD24" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25">
@@ -4659,10 +4659,10 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R25" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -5357,16 +5357,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J29" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K29" t="n">
         <v>2.3</v>
@@ -5435,7 +5435,7 @@
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
         <v>23</v>
@@ -5459,13 +5459,13 @@
         <v>3.75</v>
       </c>
       <c r="AO29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR29" t="n">
         <v>41</v>
@@ -5498,7 +5498,7 @@
         <v>81</v>
       </c>
       <c r="BB29" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC29" t="n">
         <v>501</v>
@@ -6167,40 +6167,40 @@
         </is>
       </c>
       <c r="G34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I34" t="n">
         <v>2.55</v>
       </c>
-      <c r="H34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.75</v>
-      </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
         <v>2.2</v>
       </c>
       <c r="L34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R34" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S34" t="n">
         <v>1.4</v>
@@ -6209,28 +6209,28 @@
         <v>2.75</v>
       </c>
       <c r="U34" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V34" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W34" t="n">
         <v>9.5</v>
       </c>
       <c r="X34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y34" t="n">
         <v>10</v>
       </c>
       <c r="Z34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA34" t="n">
         <v>21</v>
       </c>
       <c r="AB34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC34" t="n">
         <v>11</v>
@@ -6239,22 +6239,22 @@
         <v>6</v>
       </c>
       <c r="AE34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF34" t="n">
         <v>41</v>
       </c>
       <c r="AG34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI34" t="n">
         <v>10</v>
       </c>
       <c r="AJ34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK34" t="n">
         <v>21</v>
@@ -6266,16 +6266,16 @@
         <v>151</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR34" t="n">
         <v>67</v>
@@ -6293,7 +6293,7 @@
         <v>51</v>
       </c>
       <c r="AW34" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX34" t="n">
         <v>15</v>
@@ -6302,7 +6302,7 @@
         <v>23</v>
       </c>
       <c r="AZ34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA34" t="n">
         <v>67</v>
@@ -6367,10 +6367,10 @@
         <v>4.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O35" t="n">
         <v>1.2</v>
@@ -6379,7 +6379,7 @@
         <v>4.33</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R35" t="n">
         <v>2.15</v>
@@ -6564,7 +6564,7 @@
         <v>2.2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S36" t="n">
         <v>1.5</v>
@@ -6713,28 +6713,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J37" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K37" t="n">
         <v>2.1</v>
       </c>
       <c r="L37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M37" t="n">
         <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O37" t="n">
         <v>1.3</v>
@@ -6761,13 +6761,13 @@
         <v>2</v>
       </c>
       <c r="W37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X37" t="n">
         <v>13</v>
       </c>
       <c r="Y37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z37" t="n">
         <v>26</v>
@@ -6779,13 +6779,13 @@
         <v>29</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="n">
         <v>6.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF37" t="n">
         <v>51</v>
@@ -6794,7 +6794,7 @@
         <v>8.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI37" t="n">
         <v>10</v>
@@ -6812,7 +6812,7 @@
         <v>201</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO37" t="n">
         <v>15</v>
@@ -6839,7 +6839,7 @@
         <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX37" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -762,13 +762,13 @@
         <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.62</v>
@@ -834,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -932,10 +932,10 @@
         <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
         <v>4.5</v>
@@ -944,7 +944,7 @@
         <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.17</v>
@@ -959,22 +959,22 @@
         <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T3" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
@@ -1001,10 +1001,10 @@
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG3" t="n">
         <v>5</v>
@@ -1013,7 +1013,7 @@
         <v>9.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
         <v>23</v>
@@ -1068,7 +1068,7 @@
         <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1115,7 +1115,7 @@
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -1187,19 +1187,19 @@
         <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
         <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1238,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>34</v>
@@ -1247,7 +1247,7 @@
         <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -1256,7 +1256,7 @@
         <v>400</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1306,7 +1306,7 @@
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1330,7 +1330,7 @@
         <v>1.39</v>
       </c>
       <c r="T5" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="U5" t="n">
         <v>1.82</v>
@@ -1342,13 +1342,13 @@
         <v>7.1</v>
       </c>
       <c r="X5" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="Y5" t="n">
         <v>8.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
@@ -1360,7 +1360,7 @@
         <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1408,7 +1408,7 @@
         <v>250</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AU5" t="n">
         <v>7.8</v>
@@ -1420,13 +1420,13 @@
         <v>6.3</v>
       </c>
       <c r="AX5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY5" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ5" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA5" t="n">
         <v>200</v>
@@ -1472,54 +1472,150 @@
           <t>Aurora</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>151</v>
+      </c>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
     </row>
@@ -1554,54 +1650,150 @@
           <t>Tomayapo</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>151</v>
+      </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
     </row>
@@ -1636,54 +1828,150 @@
           <t>Universitario de Vinto</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>251</v>
+      </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
     </row>
@@ -1737,22 +2025,22 @@
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
         <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -1901,40 +2189,40 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
         <v>3.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -1955,10 +2243,10 @@
         <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="n">
         <v>23</v>
@@ -1979,7 +2267,7 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH10" t="n">
         <v>12</v>
@@ -1991,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
         <v>34</v>
@@ -2000,10 +2288,10 @@
         <v>301</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
@@ -2086,7 +2374,7 @@
         <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
         <v>2.8</v>
@@ -2095,28 +2383,28 @@
         <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
         <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
         <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="R11" t="n">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2149,7 +2437,7 @@
         <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
@@ -2161,7 +2449,7 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>13</v>
@@ -2197,7 +2485,7 @@
         <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
         <v>2.63</v>
@@ -2212,7 +2500,7 @@
         <v>4.75</v>
       </c>
       <c r="AX11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY11" t="n">
         <v>26</v>
@@ -2265,40 +2553,40 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
         <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2307,16 +2595,16 @@
         <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W12" t="n">
         <v>7</v>
       </c>
       <c r="X12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
@@ -2343,7 +2631,7 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
         <v>23</v>
@@ -2367,7 +2655,7 @@
         <v>3.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
@@ -2394,7 +2682,7 @@
         <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY12" t="n">
         <v>34</v>
@@ -2447,22 +2735,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>1.91</v>
       </c>
       <c r="L13" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M13" t="n">
         <v>1.11</v>
@@ -2498,13 +2786,13 @@
         <v>6.5</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA13" t="n">
         <v>26</v>
@@ -2525,19 +2813,19 @@
         <v>67</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ13" t="n">
         <v>29</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
         <v>41</v>
@@ -2571,7 +2859,7 @@
         <v>81</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX13" t="n">
         <v>17</v>
@@ -2627,22 +2915,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2669,25 +2957,25 @@
         <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
         <v>29</v>
@@ -2699,19 +2987,19 @@
         <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH14" t="n">
         <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
         <v>41</v>
@@ -2723,13 +3011,13 @@
         <v>41</v>
       </c>
       <c r="AM14" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN14" t="n">
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>23</v>
@@ -2756,7 +3044,7 @@
         <v>5.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY14" t="n">
         <v>29</v>
@@ -2809,16 +3097,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
@@ -2830,7 +3118,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -2845,19 +3133,19 @@
         <v>1.8</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
         <v>11</v>
@@ -2866,28 +3154,28 @@
         <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
         <v>19</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH15" t="n">
         <v>15</v>
@@ -2902,10 +3190,10 @@
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AN15" t="n">
         <v>4.33</v>
@@ -2926,7 +3214,7 @@
         <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU15" t="n">
         <v>8</v>
@@ -2947,10 +3235,10 @@
         <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
         <v>151</v>
@@ -2991,13 +3279,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J16" t="n">
         <v>2</v>
@@ -3093,7 +3381,7 @@
         <v>3.6</v>
       </c>
       <c r="AO16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP16" t="n">
         <v>15</v>
@@ -3173,16 +3461,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="H17" t="n">
         <v>4.33</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K17" t="n">
         <v>2.38</v>
@@ -3191,13 +3479,13 @@
         <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3302,7 +3590,7 @@
         <v>8</v>
       </c>
       <c r="AX17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY17" t="n">
         <v>41</v>
@@ -3472,7 +3760,7 @@
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3901,19 +4189,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J21" t="n">
         <v>2.3</v>
       </c>
       <c r="K21" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L21" t="n">
         <v>4.5</v>
@@ -3931,10 +4219,10 @@
         <v>4.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S21" t="n">
         <v>1.3</v>
@@ -3949,7 +4237,7 @@
         <v>2.2</v>
       </c>
       <c r="W21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X21" t="n">
         <v>9.5</v>
@@ -3979,16 +4267,16 @@
         <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
         <v>15</v>
       </c>
       <c r="AJ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK21" t="n">
         <v>34</v>
@@ -3997,7 +4285,7 @@
         <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN21" t="n">
         <v>4</v>
@@ -4009,7 +4297,7 @@
         <v>17</v>
       </c>
       <c r="AQ21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR21" t="n">
         <v>41</v>
@@ -4027,7 +4315,7 @@
         <v>41</v>
       </c>
       <c r="AW21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX21" t="n">
         <v>21</v>
@@ -4095,40 +4383,40 @@
         <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L22" t="n">
         <v>2.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="R22" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="S22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W22" t="n">
         <v>12</v>
@@ -4140,28 +4428,28 @@
         <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA22" t="n">
         <v>26</v>
       </c>
       <c r="AB22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD22" t="n">
         <v>6.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF22" t="n">
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH22" t="n">
         <v>11</v>
@@ -4173,7 +4461,7 @@
         <v>19</v>
       </c>
       <c r="AK22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL22" t="n">
         <v>23</v>
@@ -4185,10 +4473,10 @@
         <v>5.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
         <v>51</v>
@@ -4200,7 +4488,7 @@
         <v>151</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU22" t="n">
         <v>7.5</v>
@@ -4215,7 +4503,7 @@
         <v>11</v>
       </c>
       <c r="AY22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ22" t="n">
         <v>41</v>
@@ -4265,40 +4553,40 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H23" t="n">
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
         <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
         <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4337,22 +4625,22 @@
         <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG23" t="n">
         <v>8</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI23" t="n">
         <v>9</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
         <v>17</v>
@@ -4364,10 +4652,10 @@
         <v>201</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="n">
         <v>26</v>
@@ -4391,7 +4679,7 @@
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX23" t="n">
         <v>12</v>
@@ -4456,37 +4744,37 @@
         <v>1.73</v>
       </c>
       <c r="J24" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L24" t="n">
         <v>2.38</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U24" t="n">
         <v>1.8</v>
@@ -4495,7 +4783,7 @@
         <v>1.95</v>
       </c>
       <c r="W24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X24" t="n">
         <v>23</v>
@@ -4513,7 +4801,7 @@
         <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
         <v>7</v>
@@ -4525,7 +4813,7 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH24" t="n">
         <v>8.5</v>
@@ -4534,13 +4822,13 @@
         <v>8.5</v>
       </c>
       <c r="AJ24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK24" t="n">
         <v>15</v>
       </c>
-      <c r="AK24" t="n">
-        <v>13</v>
-      </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM24" t="n">
         <v>251</v>
@@ -4552,7 +4840,7 @@
         <v>23</v>
       </c>
       <c r="AP24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ24" t="n">
         <v>81</v>
@@ -4564,7 +4852,7 @@
         <v>201</v>
       </c>
       <c r="AT24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU24" t="n">
         <v>8</v>
@@ -4579,7 +4867,7 @@
         <v>9</v>
       </c>
       <c r="AY24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ24" t="n">
         <v>29</v>
@@ -4588,13 +4876,13 @@
         <v>51</v>
       </c>
       <c r="BB24" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC24" t="n">
         <v>126</v>
       </c>
       <c r="BD24" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
@@ -4641,10 +4929,10 @@
         <v>5.5</v>
       </c>
       <c r="K25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -4653,22 +4941,22 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="S25" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T25" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U25" t="n">
         <v>1.91</v>
@@ -4698,7 +4986,7 @@
         <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -4725,7 +5013,7 @@
         <v>26</v>
       </c>
       <c r="AM25" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN25" t="n">
         <v>6.5</v>
@@ -4740,13 +5028,13 @@
         <v>101</v>
       </c>
       <c r="AR25" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS25" t="n">
         <v>251</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU25" t="n">
         <v>8.5</v>
@@ -4761,10 +5049,10 @@
         <v>8.5</v>
       </c>
       <c r="AY25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
         <v>51</v>
@@ -4811,40 +5099,40 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
         <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R26" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S26" t="n">
         <v>1.44</v>
@@ -4859,7 +5147,7 @@
         <v>1.95</v>
       </c>
       <c r="W26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X26" t="n">
         <v>15</v>
@@ -4877,7 +5165,7 @@
         <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
@@ -4889,7 +5177,7 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH26" t="n">
         <v>11</v>
@@ -4907,7 +5195,7 @@
         <v>29</v>
       </c>
       <c r="AM26" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN26" t="n">
         <v>5</v>
@@ -4916,7 +5204,7 @@
         <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ26" t="n">
         <v>51</v>
@@ -4952,7 +5240,7 @@
         <v>67</v>
       </c>
       <c r="BB26" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC26" t="n">
         <v>126</v>
@@ -4993,40 +5281,40 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
         <v>4.75</v>
       </c>
       <c r="J27" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L27" t="n">
         <v>5.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R27" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="S27" t="n">
         <v>1.44</v>
@@ -5035,13 +5323,13 @@
         <v>2.63</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V27" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
         <v>7.5</v>
@@ -5059,7 +5347,7 @@
         <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD27" t="n">
         <v>7</v>
@@ -5068,7 +5356,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG27" t="n">
         <v>12</v>
@@ -5077,7 +5365,7 @@
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
         <v>51</v>
@@ -5089,7 +5377,7 @@
         <v>41</v>
       </c>
       <c r="AM27" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AN27" t="n">
         <v>3.6</v>
@@ -5101,19 +5389,19 @@
         <v>21</v>
       </c>
       <c r="AQ27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR27" t="n">
         <v>51</v>
       </c>
       <c r="AS27" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT27" t="n">
         <v>2.63</v>
       </c>
       <c r="AU27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV27" t="n">
         <v>67</v>
@@ -5125,7 +5413,7 @@
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ27" t="n">
         <v>101</v>
@@ -5181,22 +5469,22 @@
         <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J28" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K28" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L28" t="n">
         <v>4.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
         <v>1.33</v>
@@ -5205,10 +5493,10 @@
         <v>3.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R28" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S28" t="n">
         <v>1.44</v>
@@ -5217,10 +5505,10 @@
         <v>2.63</v>
       </c>
       <c r="U28" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V28" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W28" t="n">
         <v>7</v>
@@ -5241,10 +5529,10 @@
         <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>15</v>
@@ -5286,7 +5574,7 @@
         <v>41</v>
       </c>
       <c r="AR28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS28" t="n">
         <v>151</v>
@@ -5310,7 +5598,7 @@
         <v>29</v>
       </c>
       <c r="AZ28" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA28" t="n">
         <v>101</v>
@@ -5357,28 +5645,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H29" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K29" t="n">
         <v>2.3</v>
       </c>
       <c r="L29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O29" t="n">
         <v>1.22</v>
@@ -5387,10 +5675,10 @@
         <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R29" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S29" t="n">
         <v>1.33</v>
@@ -5399,10 +5687,10 @@
         <v>3.25</v>
       </c>
       <c r="U29" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V29" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
         <v>8</v>
@@ -5426,7 +5714,7 @@
         <v>13</v>
       </c>
       <c r="AD29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -5435,10 +5723,10 @@
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
         <v>15</v>
@@ -5450,7 +5738,7 @@
         <v>34</v>
       </c>
       <c r="AL29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM29" t="n">
         <v>201</v>
@@ -5459,13 +5747,13 @@
         <v>3.75</v>
       </c>
       <c r="AO29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR29" t="n">
         <v>41</v>
@@ -5486,7 +5774,7 @@
         <v>6.5</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
         <v>29</v>
@@ -5495,7 +5783,7 @@
         <v>81</v>
       </c>
       <c r="BA29" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB29" t="n">
         <v>201</v>
@@ -5538,54 +5826,150 @@
           <t>Punjab</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="inlineStr"/>
-      <c r="AU30" t="inlineStr"/>
-      <c r="AV30" t="inlineStr"/>
-      <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
-      <c r="BA30" t="inlineStr"/>
-      <c r="BB30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N30" t="n">
+        <v>13</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>151</v>
+      </c>
       <c r="BC30" t="inlineStr"/>
       <c r="BD30" t="inlineStr"/>
     </row>
@@ -5621,10 +6005,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I31" t="n">
         <v>4.5</v>
@@ -5663,10 +6047,10 @@
         <v>3.5</v>
       </c>
       <c r="U31" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V31" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W31" t="n">
         <v>10</v>
@@ -5699,10 +6083,10 @@
         <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -5809,7 +6193,7 @@
         <v>4.33</v>
       </c>
       <c r="I32" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J32" t="n">
         <v>5</v>
@@ -5818,7 +6202,7 @@
         <v>2.5</v>
       </c>
       <c r="L32" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M32" t="n">
         <v>1.02</v>
@@ -5857,7 +6241,7 @@
         <v>29</v>
       </c>
       <c r="Y32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z32" t="n">
         <v>51</v>
@@ -5872,7 +6256,7 @@
         <v>19</v>
       </c>
       <c r="AD32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE32" t="n">
         <v>13</v>
@@ -5893,7 +6277,7 @@
         <v>13</v>
       </c>
       <c r="AK32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL32" t="n">
         <v>19</v>
@@ -5932,7 +6316,7 @@
         <v>4</v>
       </c>
       <c r="AX32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY32" t="n">
         <v>15</v>
@@ -6015,10 +6399,10 @@
         <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R33" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S33" t="n">
         <v>1.29</v>
@@ -6167,13 +6551,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H34" t="n">
         <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J34" t="n">
         <v>3.4</v>
@@ -6182,7 +6566,7 @@
         <v>2.2</v>
       </c>
       <c r="L34" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
@@ -6215,13 +6599,13 @@
         <v>2.05</v>
       </c>
       <c r="W34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X34" t="n">
         <v>15</v>
       </c>
       <c r="Y34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z34" t="n">
         <v>29</v>
@@ -6254,13 +6638,13 @@
         <v>10</v>
       </c>
       <c r="AJ34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL34" t="n">
         <v>26</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>29</v>
       </c>
       <c r="AM34" t="n">
         <v>151</v>
@@ -6296,7 +6680,7 @@
         <v>4.5</v>
       </c>
       <c r="AX34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY34" t="n">
         <v>23</v>
@@ -6349,40 +6733,40 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I35" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J35" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K35" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L35" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O35" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P35" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="R35" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S35" t="n">
         <v>1.33</v>
@@ -6406,13 +6790,13 @@
         <v>8.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA35" t="n">
         <v>13</v>
       </c>
       <c r="AB35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC35" t="n">
         <v>13</v>
@@ -6430,13 +6814,13 @@
         <v>15</v>
       </c>
       <c r="AH35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI35" t="n">
         <v>15</v>
       </c>
       <c r="AJ35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK35" t="n">
         <v>34</v>
@@ -6451,19 +6835,19 @@
         <v>3.75</v>
       </c>
       <c r="AO35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR35" t="n">
         <v>41</v>
       </c>
       <c r="AS35" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT35" t="n">
         <v>3.25</v>
@@ -6484,7 +6868,7 @@
         <v>29</v>
       </c>
       <c r="AZ35" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA35" t="n">
         <v>81</v>
@@ -6531,13 +6915,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J36" t="n">
         <v>3</v>
@@ -6549,13 +6933,13 @@
         <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
         <v>9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -6564,7 +6948,7 @@
         <v>2.2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S36" t="n">
         <v>1.5</v>
@@ -6591,7 +6975,7 @@
         <v>21</v>
       </c>
       <c r="AA36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB36" t="n">
         <v>34</v>
@@ -6612,7 +6996,7 @@
         <v>9</v>
       </c>
       <c r="AH36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI36" t="n">
         <v>12</v>
@@ -6627,10 +7011,10 @@
         <v>41</v>
       </c>
       <c r="AM36" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN36" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO36" t="n">
         <v>13</v>
@@ -6669,7 +7053,7 @@
         <v>67</v>
       </c>
       <c r="BA36" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB36" t="n">
         <v>251</v>
@@ -6716,37 +7100,37 @@
         <v>2.6</v>
       </c>
       <c r="H37" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
         <v>2.63</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L37" t="n">
         <v>3.25</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="R37" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S37" t="n">
         <v>1.4</v>
@@ -6755,13 +7139,13 @@
         <v>2.75</v>
       </c>
       <c r="U37" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X37" t="n">
         <v>13</v>
@@ -6779,19 +7163,19 @@
         <v>29</v>
       </c>
       <c r="AC37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD37" t="n">
         <v>6.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH37" t="n">
         <v>13</v>
@@ -6812,7 +7196,7 @@
         <v>201</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO37" t="n">
         <v>15</v>
@@ -6821,7 +7205,7 @@
         <v>23</v>
       </c>
       <c r="AQ37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR37" t="n">
         <v>67</v>
@@ -6833,7 +7217,7 @@
         <v>2.75</v>
       </c>
       <c r="AU37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV37" t="n">
         <v>51</v>
@@ -6913,13 +7297,13 @@
         <v>3.75</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
         <v>11</v>
       </c>
       <c r="O38" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P38" t="n">
         <v>3.5</v>
@@ -7077,16 +7461,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H39" t="n">
         <v>4.75</v>
       </c>
       <c r="I39" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="J39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="K39" t="n">
         <v>2.3</v>
@@ -7095,22 +7479,22 @@
         <v>1.91</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>
@@ -7122,7 +7506,7 @@
         <v>2.25</v>
       </c>
       <c r="V39" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W39" t="n">
         <v>17</v>
@@ -7176,7 +7560,7 @@
         <v>101</v>
       </c>
       <c r="AN39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO39" t="n">
         <v>41</v>
@@ -7188,7 +7572,7 @@
         <v>201</v>
       </c>
       <c r="AR39" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AS39" t="inlineStr"/>
       <c r="AT39" t="n">

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -750,16 +750,16 @@
         <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L2" t="n">
         <v>3.5</v>
@@ -932,16 +932,16 @@
         <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J3" t="n">
         <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L3" t="n">
         <v>3.5</v>
@@ -950,7 +950,7 @@
         <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O3" t="n">
         <v>1.73</v>
@@ -965,10 +965,10 @@
         <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="T3" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>2.63</v>
@@ -995,7 +995,7 @@
         <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1035,7 +1035,7 @@
         <v>41</v>
       </c>
       <c r="AQ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR3" t="n">
         <v>151</v>
@@ -1044,7 +1044,7 @@
         <v>501</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU3" t="n">
         <v>11</v>
@@ -1109,52 +1109,52 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1163,25 +1163,25 @@
         <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
         <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>
@@ -1199,7 +1199,7 @@
         <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1214,22 +1214,22 @@
         <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="n">
         <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
@@ -1238,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
         <v>34</v>
@@ -1247,10 +1247,10 @@
         <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC4" t="n">
         <v>400</v>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
@@ -1503,10 +1503,10 @@
         <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1651,22 +1651,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1681,16 +1681,16 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
         <v>1.67</v>
@@ -1699,19 +1699,19 @@
         <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
         <v>23</v>
@@ -1720,7 +1720,7 @@
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1729,31 +1729,31 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
@@ -1762,31 +1762,31 @@
         <v>29</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
         <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
         <v>81</v>
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
@@ -1847,10 +1847,10 @@
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
@@ -2189,13 +2189,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J10" t="n">
         <v>3.5</v>
@@ -2371,13 +2371,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J11" t="n">
         <v>3.2</v>
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
@@ -2571,22 +2571,22 @@
         <v>4.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R12" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2921,7 +2921,7 @@
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
         <v>2.75</v>
@@ -2957,25 +2957,25 @@
         <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="n">
         <v>29</v>
@@ -2993,13 +2993,13 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH14" t="n">
         <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>41</v>
@@ -3017,7 +3017,7 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
         <v>23</v>
@@ -3118,7 +3118,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H17" t="n">
         <v>4.33</v>
@@ -3515,7 +3515,7 @@
         <v>6.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
         <v>9.5</v>
@@ -3533,7 +3533,7 @@
         <v>8.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>67</v>
@@ -3557,7 +3557,7 @@
         <v>51</v>
       </c>
       <c r="AM17" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AN17" t="n">
         <v>3.4</v>
@@ -3661,13 +3661,13 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
         <v>3.2</v>
@@ -3843,22 +3843,22 @@
         <v>3.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
         <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
         <v>3.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R19" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S19" t="n">
         <v>1.4</v>
@@ -4025,13 +4025,13 @@
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
         <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -4207,13 +4207,13 @@
         <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
         <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
         <v>4.5</v>
@@ -4389,13 +4389,13 @@
         <v>2.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
         <v>13</v>
       </c>
       <c r="O22" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -4571,22 +4571,22 @@
         <v>2.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
         <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
         <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R23" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4759,16 +4759,16 @@
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R24" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S24" t="n">
         <v>1.4</v>
@@ -4947,10 +4947,10 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R25" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -5129,10 +5129,10 @@
         <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
         <v>1.44</v>
@@ -5463,28 +5463,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J28" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K28" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L28" t="n">
         <v>4.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
         <v>1.33</v>
@@ -5493,10 +5493,10 @@
         <v>3.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
         <v>1.44</v>
@@ -5505,10 +5505,10 @@
         <v>2.63</v>
       </c>
       <c r="U28" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V28" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W28" t="n">
         <v>7</v>
@@ -5529,10 +5529,10 @@
         <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE28" t="n">
         <v>15</v>
@@ -5574,7 +5574,7 @@
         <v>41</v>
       </c>
       <c r="AR28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS28" t="n">
         <v>151</v>
@@ -5598,7 +5598,7 @@
         <v>29</v>
       </c>
       <c r="AZ28" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA28" t="n">
         <v>101</v>
@@ -5687,7 +5687,7 @@
         <v>3.25</v>
       </c>
       <c r="U29" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V29" t="n">
         <v>2</v>
@@ -6047,10 +6047,10 @@
         <v>3.5</v>
       </c>
       <c r="U31" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V31" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W31" t="n">
         <v>10</v>
@@ -6062,7 +6062,7 @@
         <v>8.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA31" t="n">
         <v>12</v>
@@ -6083,10 +6083,10 @@
         <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -6134,10 +6134,10 @@
         <v>6.5</v>
       </c>
       <c r="AX31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ31" t="n">
         <v>67</v>
@@ -6146,7 +6146,7 @@
         <v>81</v>
       </c>
       <c r="BB31" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC31" t="n">
         <v>351</v>
@@ -6259,7 +6259,7 @@
         <v>9</v>
       </c>
       <c r="AE32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF32" t="n">
         <v>41</v>
@@ -6289,7 +6289,7 @@
         <v>7</v>
       </c>
       <c r="AO32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP32" t="n">
         <v>26</v>
@@ -6313,7 +6313,7 @@
         <v>41</v>
       </c>
       <c r="AW32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX32" t="n">
         <v>7.5</v>
@@ -6369,7 +6369,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H33" t="n">
         <v>4.1</v>
@@ -6551,28 +6551,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K34" t="n">
         <v>2.2</v>
       </c>
       <c r="L34" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O34" t="n">
         <v>1.29</v>
@@ -6611,7 +6611,7 @@
         <v>29</v>
       </c>
       <c r="AA34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB34" t="n">
         <v>29</v>
@@ -6632,10 +6632,10 @@
         <v>9</v>
       </c>
       <c r="AH34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ34" t="n">
         <v>23</v>
@@ -6647,13 +6647,13 @@
         <v>26</v>
       </c>
       <c r="AM34" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP34" t="n">
         <v>23</v>
@@ -6683,13 +6683,13 @@
         <v>13</v>
       </c>
       <c r="AY34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ34" t="n">
         <v>41</v>
       </c>
       <c r="BA34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB34" t="n">
         <v>151</v>
@@ -6751,13 +6751,13 @@
         <v>4.5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
         <v>13</v>
       </c>
       <c r="O35" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -6769,7 +6769,7 @@
         <v>2.1</v>
       </c>
       <c r="S35" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T35" t="n">
         <v>3.25</v>
@@ -6933,13 +6933,13 @@
         <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
         <v>9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -6951,7 +6951,7 @@
         <v>1.65</v>
       </c>
       <c r="S36" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T36" t="n">
         <v>2.5</v>
@@ -7115,13 +7115,13 @@
         <v>3.25</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
         <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
         <v>3.5</v>
@@ -7297,13 +7297,13 @@
         <v>3.75</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
         <v>11</v>
       </c>
       <c r="O38" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P38" t="n">
         <v>3.5</v>
@@ -7506,7 +7506,7 @@
         <v>2.25</v>
       </c>
       <c r="V39" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W39" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -759,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
         <v>3.5</v>
@@ -965,7 +965,7 @@
         <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -1115,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
@@ -1127,10 +1127,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1145,16 +1145,16 @@
         <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1166,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
         <v>26</v>
@@ -1175,7 +1175,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1187,13 +1187,13 @@
         <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH4" t="n">
         <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
         <v>34</v>
@@ -1202,7 +1202,7 @@
         <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
         <v>150</v>
@@ -1211,7 +1211,7 @@
         <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
@@ -1226,7 +1226,7 @@
         <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
@@ -1241,7 +1241,7 @@
         <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
         <v>67</v>
@@ -1473,28 +1473,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
@@ -1521,10 +1521,10 @@
         <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
@@ -1536,10 +1536,10 @@
         <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1551,7 +1551,7 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
@@ -1560,31 +1560,31 @@
         <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
         <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
         <v>201</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
@@ -1611,7 +1611,7 @@
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
         <v>151</v>
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
         <v>3.9</v>
@@ -1672,37 +1672,37 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.73</v>
       </c>
-      <c r="R7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X7" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>9</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
@@ -1717,7 +1717,7 @@
         <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
         <v>7.5</v>
@@ -1726,10 +1726,10 @@
         <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>23</v>
@@ -1744,10 +1744,10 @@
         <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN7" t="n">
         <v>3.75</v>
@@ -1762,13 +1762,13 @@
         <v>29</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
         <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1789,10 +1789,10 @@
         <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
@@ -1847,22 +1847,22 @@
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R8" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
@@ -2094,7 +2094,7 @@
         <v>19</v>
       </c>
       <c r="AJ9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
@@ -2103,7 +2103,7 @@
         <v>51</v>
       </c>
       <c r="AM9" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AN9" t="n">
         <v>3.5</v>
@@ -2112,7 +2112,7 @@
         <v>8.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
         <v>29</v>
@@ -2189,13 +2189,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J10" t="n">
         <v>3.5</v>
@@ -2210,7 +2210,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2371,13 +2371,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J11" t="n">
         <v>3.2</v>
@@ -2389,10 +2389,10 @@
         <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -2401,10 +2401,10 @@
         <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R11" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2500,7 +2500,7 @@
         <v>4.75</v>
       </c>
       <c r="AX11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY11" t="n">
         <v>26</v>
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
@@ -2577,10 +2577,10 @@
         <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
         <v>2.07</v>
@@ -2589,16 +2589,16 @@
         <v>1.83</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
         <v>7</v>
@@ -2616,10 +2616,10 @@
         <v>15</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
@@ -2670,7 +2670,7 @@
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
         <v>8.5</v>
@@ -2753,10 +2753,10 @@
         <v>3.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
         <v>1.5</v>
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -3097,40 +3097,40 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
         <v>3.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3139,34 +3139,34 @@
         <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
         <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -3175,10 +3175,10 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
         <v>11</v>
@@ -3193,25 +3193,25 @@
         <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN15" t="n">
         <v>4.33</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR15" t="n">
         <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
         <v>2.63</v>
@@ -3223,7 +3223,7 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX15" t="n">
         <v>17</v>
@@ -3241,10 +3241,10 @@
         <v>201</v>
       </c>
       <c r="BC15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
@@ -3282,19 +3282,19 @@
         <v>1.48</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K16" t="n">
         <v>2.5</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -3327,13 +3327,13 @@
         <v>2.1</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z16" t="n">
         <v>11</v>
@@ -3360,10 +3360,10 @@
         <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
         <v>67</v>
@@ -3405,7 +3405,7 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX16" t="n">
         <v>29</v>
@@ -3420,10 +3420,10 @@
         <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC16" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD16" t="n">
         <v>151</v>
@@ -3461,22 +3461,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="H17" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -3485,16 +3485,16 @@
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S17" t="n">
         <v>1.36</v>
@@ -3503,40 +3503,40 @@
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X17" t="n">
         <v>7</v>
       </c>
-      <c r="X17" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
         <v>12</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
         <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3557,13 +3557,13 @@
         <v>51</v>
       </c>
       <c r="AM17" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AN17" t="n">
         <v>3.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP17" t="n">
         <v>19</v>
@@ -3584,19 +3584,19 @@
         <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
         <v>8</v>
       </c>
       <c r="AX17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY17" t="n">
         <v>41</v>
       </c>
       <c r="AZ17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA17" t="n">
         <v>151</v>
@@ -3721,7 +3721,7 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH18" t="n">
         <v>17</v>
@@ -3769,7 +3769,7 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX18" t="n">
         <v>19</v>
@@ -3825,13 +3825,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J19" t="n">
         <v>3.1</v>
@@ -3840,25 +3840,25 @@
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R19" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="S19" t="n">
         <v>1.4</v>
@@ -3891,7 +3891,7 @@
         <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
         <v>6.5</v>
@@ -3915,7 +3915,7 @@
         <v>29</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
         <v>29</v>
@@ -3945,16 +3945,16 @@
         <v>2.75</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY19" t="n">
         <v>23</v>
@@ -3969,7 +3969,7 @@
         <v>151</v>
       </c>
       <c r="BC19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD19" t="n">
         <v>151</v>
@@ -4025,10 +4025,10 @@
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -4189,16 +4189,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
         <v>4.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K21" t="n">
         <v>2.4</v>
@@ -4213,34 +4213,34 @@
         <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R21" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V21" t="n">
         <v>2.25</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.2</v>
       </c>
       <c r="W21" t="n">
         <v>9.5</v>
       </c>
       <c r="X21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
@@ -4249,7 +4249,7 @@
         <v>15</v>
       </c>
       <c r="AA21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB21" t="n">
         <v>21</v>
@@ -4261,7 +4261,7 @@
         <v>7.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF21" t="n">
         <v>41</v>
@@ -4291,7 +4291,7 @@
         <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP21" t="n">
         <v>17</v>
@@ -4306,7 +4306,7 @@
         <v>101</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU21" t="n">
         <v>7.5</v>
@@ -4333,7 +4333,7 @@
         <v>151</v>
       </c>
       <c r="BC21" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD21" t="n">
         <v>151</v>
@@ -4371,16 +4371,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
         <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
         <v>2.25</v>
@@ -4401,10 +4401,10 @@
         <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R22" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S22" t="n">
         <v>1.33</v>
@@ -4422,7 +4422,7 @@
         <v>12</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
         <v>12</v>
@@ -4431,7 +4431,7 @@
         <v>34</v>
       </c>
       <c r="AA22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB22" t="n">
         <v>29</v>
@@ -4449,7 +4449,7 @@
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH22" t="n">
         <v>11</v>
@@ -4458,10 +4458,10 @@
         <v>9</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
         <v>23</v>
@@ -4571,10 +4571,10 @@
         <v>2.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
         <v>1.29</v>
@@ -4583,10 +4583,10 @@
         <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4735,22 +4735,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -4765,10 +4765,10 @@
         <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S24" t="n">
         <v>1.4</v>
@@ -4813,7 +4813,7 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH24" t="n">
         <v>8.5</v>
@@ -4822,7 +4822,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
         <v>15</v>
@@ -4834,13 +4834,13 @@
         <v>251</v>
       </c>
       <c r="AN24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO24" t="n">
         <v>23</v>
       </c>
       <c r="AP24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ24" t="n">
         <v>81</v>
@@ -4864,7 +4864,7 @@
         <v>3.75</v>
       </c>
       <c r="AX24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY24" t="n">
         <v>21</v>
@@ -4917,13 +4917,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J25" t="n">
         <v>5.5</v>
@@ -4935,10 +4935,10 @@
         <v>2.25</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
@@ -4947,10 +4947,10 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R25" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -4998,13 +4998,13 @@
         <v>7</v>
       </c>
       <c r="AH25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI25" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
         <v>13</v>
@@ -5013,13 +5013,13 @@
         <v>26</v>
       </c>
       <c r="AM25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP25" t="n">
         <v>34</v>
@@ -5028,7 +5028,7 @@
         <v>101</v>
       </c>
       <c r="AR25" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS25" t="n">
         <v>251</v>
@@ -5099,10 +5099,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
         <v>2.25</v>
@@ -5123,16 +5123,16 @@
         <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
         <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S26" t="n">
         <v>1.44</v>
@@ -5141,10 +5141,10 @@
         <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W26" t="n">
         <v>9</v>
@@ -5153,19 +5153,19 @@
         <v>15</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
         <v>34</v>
       </c>
       <c r="AA26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
@@ -5177,10 +5177,10 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>9.5</v>
@@ -5192,7 +5192,7 @@
         <v>19</v>
       </c>
       <c r="AL26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
         <v>301</v>
@@ -5201,25 +5201,25 @@
         <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
         <v>29</v>
       </c>
       <c r="AQ26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR26" t="n">
         <v>81</v>
       </c>
       <c r="AS26" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT26" t="n">
         <v>2.63</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV26" t="n">
         <v>51</v>
@@ -5305,16 +5305,16 @@
         <v>11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R27" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S27" t="n">
         <v>1.44</v>
@@ -5496,7 +5496,7 @@
         <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S28" t="n">
         <v>1.44</v>
@@ -5645,19 +5645,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L29" t="n">
         <v>5</v>
@@ -5669,13 +5669,13 @@
         <v>15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R29" t="n">
         <v>2.1</v>
@@ -5702,7 +5702,7 @@
         <v>8.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA29" t="n">
         <v>13</v>
@@ -5720,7 +5720,7 @@
         <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG29" t="n">
         <v>15</v>
@@ -5735,7 +5735,7 @@
         <v>51</v>
       </c>
       <c r="AK29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL29" t="n">
         <v>41</v>
@@ -5747,7 +5747,7 @@
         <v>3.75</v>
       </c>
       <c r="AO29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP29" t="n">
         <v>17</v>
@@ -5771,7 +5771,7 @@
         <v>51</v>
       </c>
       <c r="AW29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX29" t="n">
         <v>26</v>
@@ -5827,16 +5827,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I30" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J30" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K30" t="n">
         <v>2.3</v>
@@ -5869,16 +5869,16 @@
         <v>3.25</v>
       </c>
       <c r="U30" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
+        <v>8</v>
+      </c>
+      <c r="X30" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X30" t="n">
-        <v>9</v>
       </c>
       <c r="Y30" t="n">
         <v>8.5</v>
@@ -5908,7 +5908,7 @@
         <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -5920,7 +5920,7 @@
         <v>34</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="n">
         <v>151</v>
@@ -5929,7 +5929,7 @@
         <v>3.75</v>
       </c>
       <c r="AO30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP30" t="n">
         <v>19</v>
@@ -5965,10 +5965,10 @@
         <v>81</v>
       </c>
       <c r="BA30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB30" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC30" t="inlineStr"/>
       <c r="BD30" t="inlineStr"/>
@@ -6005,22 +6005,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I31" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K31" t="n">
         <v>2.5</v>
       </c>
       <c r="L31" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -6047,34 +6047,34 @@
         <v>3.5</v>
       </c>
       <c r="U31" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y31" t="n">
         <v>8.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA31" t="n">
         <v>12</v>
       </c>
       <c r="AB31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
         <v>17</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
@@ -6083,43 +6083,43 @@
         <v>41</v>
       </c>
       <c r="AG31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI31" t="n">
         <v>17</v>
       </c>
-      <c r="AH31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ31" t="n">
         <v>51</v>
       </c>
       <c r="AK31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="n">
         <v>34</v>
       </c>
       <c r="AM31" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN31" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP31" t="n">
         <v>15</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
         <v>41</v>
       </c>
       <c r="AS31" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT31" t="n">
         <v>3.5</v>
@@ -6131,16 +6131,16 @@
         <v>41</v>
       </c>
       <c r="AW31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ31" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA31" t="n">
         <v>81</v>
@@ -6187,22 +6187,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H32" t="n">
         <v>4.33</v>
       </c>
       <c r="I32" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K32" t="n">
         <v>2.5</v>
       </c>
       <c r="L32" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M32" t="n">
         <v>1.02</v>
@@ -6217,10 +6217,10 @@
         <v>5.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S32" t="n">
         <v>1.25</v>
@@ -6241,7 +6241,7 @@
         <v>29</v>
       </c>
       <c r="Y32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z32" t="n">
         <v>51</v>
@@ -6259,7 +6259,7 @@
         <v>9</v>
       </c>
       <c r="AE32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF32" t="n">
         <v>41</v>
@@ -6277,7 +6277,7 @@
         <v>13</v>
       </c>
       <c r="AK32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL32" t="n">
         <v>19</v>
@@ -6289,7 +6289,7 @@
         <v>7</v>
       </c>
       <c r="AO32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP32" t="n">
         <v>26</v>
@@ -6301,7 +6301,7 @@
         <v>81</v>
       </c>
       <c r="AS32" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT32" t="n">
         <v>3.75</v>
@@ -6313,10 +6313,10 @@
         <v>41</v>
       </c>
       <c r="AW32" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY32" t="n">
         <v>15</v>
@@ -6369,13 +6369,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H33" t="n">
         <v>4.1</v>
       </c>
       <c r="I33" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J33" t="n">
         <v>2.1</v>
@@ -6390,7 +6390,7 @@
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O33" t="n">
         <v>1.17</v>
@@ -6411,22 +6411,22 @@
         <v>3.5</v>
       </c>
       <c r="U33" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W33" t="n">
         <v>9.5</v>
       </c>
       <c r="X33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y33" t="n">
         <v>8.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA33" t="n">
         <v>12</v>
@@ -6435,7 +6435,7 @@
         <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD33" t="n">
         <v>8</v>
@@ -6450,7 +6450,7 @@
         <v>19</v>
       </c>
       <c r="AH33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI33" t="n">
         <v>17</v>
@@ -6462,22 +6462,22 @@
         <v>41</v>
       </c>
       <c r="AL33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN33" t="n">
         <v>3.75</v>
       </c>
       <c r="AO33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP33" t="n">
         <v>15</v>
       </c>
       <c r="AQ33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR33" t="n">
         <v>41</v>
@@ -6498,10 +6498,10 @@
         <v>7</v>
       </c>
       <c r="AX33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ33" t="n">
         <v>81</v>
@@ -6557,7 +6557,7 @@
         <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J34" t="n">
         <v>3.5</v>
@@ -6581,10 +6581,10 @@
         <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R34" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S34" t="n">
         <v>1.4</v>
@@ -6593,13 +6593,13 @@
         <v>2.75</v>
       </c>
       <c r="U34" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V34" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X34" t="n">
         <v>15</v>
@@ -6623,7 +6623,7 @@
         <v>6</v>
       </c>
       <c r="AE34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF34" t="n">
         <v>41</v>
@@ -6647,7 +6647,7 @@
         <v>26</v>
       </c>
       <c r="AM34" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN34" t="n">
         <v>5</v>
@@ -6751,16 +6751,16 @@
         <v>4.5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q35" t="n">
         <v>1.7</v>
@@ -6769,7 +6769,7 @@
         <v>2.1</v>
       </c>
       <c r="S35" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T35" t="n">
         <v>3.25</v>
@@ -6951,7 +6951,7 @@
         <v>1.65</v>
       </c>
       <c r="S36" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T36" t="n">
         <v>2.5</v>
@@ -7097,22 +7097,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K37" t="n">
         <v>2.2</v>
       </c>
       <c r="L37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
@@ -7139,13 +7139,13 @@
         <v>2.75</v>
       </c>
       <c r="U37" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V37" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X37" t="n">
         <v>13</v>
@@ -7175,7 +7175,7 @@
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH37" t="n">
         <v>13</v>
@@ -7184,7 +7184,7 @@
         <v>10</v>
       </c>
       <c r="AJ37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK37" t="n">
         <v>21</v>
@@ -7205,7 +7205,7 @@
         <v>23</v>
       </c>
       <c r="AQ37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR37" t="n">
         <v>67</v>
@@ -7223,16 +7223,16 @@
         <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY37" t="n">
         <v>23</v>
       </c>
       <c r="AZ37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA37" t="n">
         <v>67</v>
@@ -7309,10 +7309,10 @@
         <v>3.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R38" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S38" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -768,7 +768,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0QwKuo6e</t>
+          <t>EwDJUSoA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,172 +728,350 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Mumbai City</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T2" t="n">
         <v>3.25</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB2" t="n">
         <v>21</v>
       </c>
-      <c r="AA2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
       <c r="AC2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD2" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5.5</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
       </c>
       <c r="AF2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK2" t="n">
         <v>51</v>
       </c>
-      <c r="AG2" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>34</v>
       </c>
-      <c r="AL2" t="n">
-        <v>29</v>
-      </c>
       <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR2" t="n">
         <v>41</v>
       </c>
-      <c r="AN2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>67</v>
-      </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
         <v>81</v>
       </c>
       <c r="BB2" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0QwKuo6e</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
         <v>251</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC3" t="n">
         <v>51</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD3" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -804,7 +804,7 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -819,7 +819,7 @@
         <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -831,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
@@ -846,16 +846,16 @@
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -867,7 +867,7 @@
         <v>3.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -879,10 +879,10 @@
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
         <v>81</v>
@@ -925,19 +925,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>3.75</v>
@@ -946,7 +946,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -973,16 +973,16 @@
         <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -1006,13 +1006,13 @@
         <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
         <v>34</v>
@@ -1027,16 +1027,16 @@
         <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1051,16 +1051,16 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -765,10 +765,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K2" t="n">
         <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -789,16 +789,16 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
         <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -837,10 +837,10 @@
         <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
@@ -873,10 +873,10 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>26</v>
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -946,7 +946,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -955,10 +955,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -973,7 +973,7 @@
         <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
         <v>11</v>
@@ -1027,7 +1027,7 @@
         <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1036,7 +1036,7 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1051,7 +1051,7 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
         <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -789,16 +789,16 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
         <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -837,10 +837,10 @@
         <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
@@ -873,10 +873,10 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,16 +704,6 @@
           <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4_HT</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -753,7 +743,7 @@
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.3</v>
@@ -777,10 +767,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -816,7 +806,7 @@
         <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -879,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
         <v>67</v>
@@ -889,190 +879,6 @@
       </c>
       <c r="BB2" t="n">
         <v>151</v>
-      </c>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>0QwKuo6e</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CA Cerro</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7</v>
-      </c>
-      <c r="X3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -752,7 +752,7 @@
         <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -761,16 +761,16 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -779,13 +779,13 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>9</v>
@@ -800,22 +800,22 @@
         <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
@@ -833,16 +833,16 @@
         <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
         <v>9</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -851,13 +851,13 @@
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
         <v>3.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -872,7 +872,7 @@
         <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -737,73 +737,73 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.8</v>
       </c>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.73</v>
-      </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
+        <v>7</v>
+      </c>
+      <c r="X2" t="n">
         <v>8</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -812,13 +812,13 @@
         <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
@@ -830,7 +830,7 @@
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -842,22 +842,22 @@
         <v>9</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -866,19 +866,19 @@
         <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -740,10 +740,10 @@
         <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>2.3</v>
@@ -752,13 +752,13 @@
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -767,10 +767,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -779,16 +779,16 @@
         <v>2.75</v>
       </c>
       <c r="U2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.8</v>
       </c>
-      <c r="V2" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -797,34 +797,34 @@
         <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
         <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -836,7 +836,7 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
         <v>9</v>
@@ -872,13 +872,13 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
@@ -755,22 +755,22 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,11 +704,21 @@
           <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4_HT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EwDJUSoA</t>
+          <t>Ukw2Lkbe</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -718,167 +728,173 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Mumbai City</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Stripfing</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.83</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>700</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI2" t="n">
         <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>500</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -750,10 +750,10 @@
         <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
         <v>2.27</v>
@@ -762,13 +762,13 @@
         <v>2.15</v>
       </c>
       <c r="L2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -777,25 +777,25 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
         <v>1.42</v>
       </c>
       <c r="T2" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W2" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
@@ -813,13 +813,13 @@
         <v>28</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>80</v>
@@ -831,7 +831,7 @@
         <v>12.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ2" t="n">
         <v>15.5</v>
@@ -840,10 +840,10 @@
         <v>80</v>
       </c>
       <c r="AL2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN2" t="n">
         <v>3.45</v>
@@ -852,10 +852,10 @@
         <v>8.25</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>65</v>
@@ -864,10 +864,10 @@
         <v>300</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>80</v>
@@ -876,7 +876,7 @@
         <v>6.3</v>
       </c>
       <c r="AX2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY2" t="n">
         <v>35</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -747,148 +747,148 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="K2" t="n">
         <v>2.15</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="S2" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V2" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="Y2" t="n">
         <v>8.25</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG2" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH2" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI2" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM2" t="n">
         <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AP2" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR2" t="n">
         <v>65</v>
       </c>
       <c r="AS2" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AV2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AY2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ2" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BA2" t="n">
         <v>200</v>
       </c>
       <c r="BB2" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC2" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,154 +747,878 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="J2" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2.15</v>
       </c>
-      <c r="L2" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.02</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="T2" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="U2" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V2" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Y2" t="n">
         <v>8.25</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG2" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH2" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR2" t="n">
         <v>70</v>
       </c>
-      <c r="AL2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>65</v>
-      </c>
       <c r="AS2" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV2" t="n">
         <v>75</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AX2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AY2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ2" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA2" t="n">
         <v>200</v>
       </c>
       <c r="BB2" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC2" t="n">
         <v>81</v>
       </c>
       <c r="BD2" t="n">
         <v>81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>rRWlnUeS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SA Bulo Bulo</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8</v>
+      </c>
+      <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>YLnqVaS1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cambuur</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N4" t="n">
+        <v>19</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>10</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0Eadv45F</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Jong Utrecht</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>21</v>
+      </c>
+      <c r="X5" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>xfgzXLck</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Roda</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>17</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>9</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -747,37 +747,37 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>4.85</v>
+        <v>4.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R2" t="n">
         <v>1.62</v>
@@ -786,34 +786,34 @@
         <v>1.45</v>
       </c>
       <c r="T2" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="U2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="X2" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
         <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AD2" t="n">
         <v>6.3</v>
@@ -828,43 +828,43 @@
         <v>900</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN2" t="n">
         <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS2" t="n">
         <v>300</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AU2" t="n">
         <v>7.6</v>
@@ -873,22 +873,22 @@
         <v>75</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AX2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AY2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ2" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA2" t="n">
         <v>175</v>
       </c>
-      <c r="BA2" t="n">
-        <v>200</v>
-      </c>
       <c r="BB2" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC2" t="n">
         <v>81</v>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H4" t="n">
         <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
@@ -1122,7 +1122,7 @@
         <v>2.6</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
@@ -1149,10 +1149,10 @@
         <v>3.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W4" t="n">
         <v>10</v>
@@ -1203,7 +1203,7 @@
         <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
         <v>3.75</v>
@@ -1239,7 +1239,7 @@
         <v>26</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>81</v>
@@ -1307,10 +1307,10 @@
         <v>1.91</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O5" t="n">
         <v>1.14</v>
@@ -1319,10 +1319,10 @@
         <v>5.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.25</v>
@@ -1501,10 +1501,10 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,88 +750,88 @@
         <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I2" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="J2" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="L2" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="S2" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="T2" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="W2" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="X2" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA2" t="n">
         <v>15</v>
       </c>
-      <c r="AA2" t="n">
-        <v>17</v>
-      </c>
       <c r="AB2" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AG2" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AH2" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
         <v>14</v>
@@ -843,43 +843,43 @@
         <v>45</v>
       </c>
       <c r="AM2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS2" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AV2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW2" t="n">
         <v>5.9</v>
       </c>
       <c r="AX2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AZ2" t="n">
         <v>150</v>
@@ -888,7 +888,7 @@
         <v>175</v>
       </c>
       <c r="BB2" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC2" t="n">
         <v>81</v>
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
         <v>3.6</v>
@@ -959,10 +959,10 @@
         <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -977,13 +977,13 @@
         <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>23</v>
@@ -995,7 +995,7 @@
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1007,13 +1007,13 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>11</v>
@@ -1028,22 +1028,22 @@
         <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
         <v>2.63</v>
@@ -1501,10 +1501,10 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1619,6 +1619,370 @@
       </c>
       <c r="BD6" t="n">
         <v>151</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MyS7z3gR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>tznSwPz8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Rampla Juniors</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,7 +1078,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>YLnqVaS1</t>
+          <t>x40mil76</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,170 +1088,170 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
         <v>2</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.6</v>
-      </c>
       <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
         <v>5</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="AX4" t="n">
         <v>19</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W4" t="n">
-        <v>10</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC4" t="n">
         <v>126</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>351</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0Eadv45F</t>
+          <t>bJldkSyJ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1270,143 +1270,143 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.25</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.44</v>
       </c>
-      <c r="J5" t="n">
-        <v>6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="T5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.91</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="W5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
         <v>19</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>21</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK5" t="n">
         <v>34</v>
       </c>
-      <c r="Y5" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AL5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
         <v>67</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>101</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1415,25 +1415,25 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1442,7 +1442,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>xfgzXLck</t>
+          <t>pANE79im</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1452,59 +1452,59 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Roda</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K6" t="n">
         <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1513,22 +1513,22 @@
         <v>3.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
         <v>11</v>
@@ -1540,46 +1540,46 @@
         <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
         <v>41</v>
       </c>
-      <c r="AG6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
@@ -1591,31 +1591,31 @@
         <v>3.5</v>
       </c>
       <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
         <v>8</v>
       </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AX6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1624,7 +1624,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MyS7z3gR</t>
+          <t>INLM5mMa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1634,179 +1634,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.2</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>15</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="V7" t="n">
         <v>1.62</v>
       </c>
-      <c r="R7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W7" t="n">
+        <v>6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y7" t="n">
         <v>9</v>
       </c>
-      <c r="X7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA7" t="n">
         <v>13</v>
       </c>
-      <c r="AA7" t="n">
-        <v>12</v>
-      </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
         <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX7" t="n">
         <v>41</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AY7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>151</v>
       </c>
-      <c r="AH7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>81</v>
-      </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="n">
+        <v>401</v>
+      </c>
+      <c r="BC7" t="n">
         <v>151</v>
       </c>
-      <c r="BC7" t="n">
-        <v>81</v>
-      </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>tznSwPz8</t>
+          <t>xQyO3RjC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1816,65 +1816,65 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.63</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
@@ -1883,105 +1883,3017 @@
         <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>12</v>
       </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
         <v>23</v>
       </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU8" t="n">
         <v>8</v>
       </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>l45tM86t</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
         <v>81</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB9" t="n">
         <v>201</v>
       </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W4SkpHgl</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>19</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W10" t="n">
+        <v>11</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>0pK6tZhD</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>10</v>
+      </c>
+      <c r="X11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SjCh4xoK</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Burton</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>11</v>
+      </c>
+      <c r="X12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>hUDL3zAe</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cambridge Utd</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>8f5RPzfE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Exeter</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>13</v>
+      </c>
+      <c r="X14" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EmpteY76</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9</v>
+      </c>
+      <c r="X15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>8A5F9XMa</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Wigan</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>xYeBnjDs</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Wrexham</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EeAuXi1s</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mansfield</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>YLnqVaS1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cambuur</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>19</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W19" t="n">
+        <v>10</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0Eadv45F</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Jong Utrecht</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N20" t="n">
+        <v>19</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W20" t="n">
+        <v>21</v>
+      </c>
+      <c r="X20" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>xfgzXLck</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Roda</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>17</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>9</v>
+      </c>
+      <c r="X21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MZlGlqgt</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SCOTLAND - PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MyS7z3gR</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>15</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>9</v>
+      </c>
+      <c r="X23" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>tznSwPz8</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Rampla Juniors</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD24" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ukw2Lkbe</t>
+          <t>rRWlnUeS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,175 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>SA Bulo Bulo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Stripfing</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.15</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>4.55</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH2" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="AI2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO2" t="n">
         <v>15</v>
       </c>
-      <c r="AB2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>9</v>
-      </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.9</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>81</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>rRWlnUeS</t>
+          <t>x40mil76</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,134 +906,134 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SA Bulo Bulo</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X3" t="n">
         <v>10</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>11</v>
-      </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH3" t="n">
         <v>8.5</v>
       </c>
       <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
         <v>13</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1046,39 +1042,43 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>x40mil76</t>
+          <t>bJldkSyJ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1098,67 +1098,67 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.91</v>
       </c>
-      <c r="V4" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
@@ -1170,49 +1170,49 @@
         <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
         <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
         <v>13</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1221,34 +1221,34 @@
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
         <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bJldkSyJ</t>
+          <t>pANE79im</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1280,55 +1280,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R5" t="n">
         <v>2.3</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.73</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
@@ -1337,103 +1337,103 @@
         <v>1.91</v>
       </c>
       <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
         <v>7.5</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="n">
         <v>11</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AB5" t="n">
         <v>21</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>19</v>
       </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX5" t="n">
         <v>34</v>
       </c>
-      <c r="AL5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM5" t="n">
+      <c r="AY5" t="n">
         <v>34</v>
       </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
         <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1442,7 +1442,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pANE79im</t>
+          <t>INLM5mMa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1462,100 +1462,100 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L6" t="n">
         <v>7</v>
       </c>
-      <c r="J6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6.5</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH6" t="n">
         <v>15</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21</v>
-      </c>
       <c r="AI6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>21</v>
@@ -1567,55 +1567,55 @@
         <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO6" t="n">
         <v>7</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>8</v>
-      </c>
       <c r="AX6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="BC6" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1624,7 +1624,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INLM5mMa</t>
+          <t>xQyO3RjC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1644,31 +1644,31 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.44</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1683,121 +1683,121 @@
         <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.83</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH7" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15</v>
-      </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>67</v>
       </c>
-      <c r="AW7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>151</v>
-      </c>
       <c r="BA7" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1806,7 +1806,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>xQyO3RjC</t>
+          <t>l45tM86t</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1826,31 +1826,31 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1859,34 +1859,34 @@
         <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.73</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1898,25 +1898,25 @@
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>17</v>
@@ -1925,34 +1925,34 @@
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1964,19 +1964,19 @@
         <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -1988,7 +1988,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>l45tM86t</t>
+          <t>pjuW15LO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2008,103 +2008,103 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
         <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI9" t="n">
         <v>15</v>
       </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
         <v>34</v>
@@ -2113,52 +2113,52 @@
         <v>26</v>
       </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
         <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
         <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
         <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2402,7 +2402,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
         <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
@@ -3852,7 +3852,7 @@
         <v>2.6</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
@@ -3879,10 +3879,10 @@
         <v>3.75</v>
       </c>
       <c r="U19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W19" t="n">
         <v>10</v>
@@ -3924,7 +3924,7 @@
         <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
         <v>51</v>
@@ -3933,7 +3933,7 @@
         <v>41</v>
       </c>
       <c r="AM19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="n">
         <v>3.75</v>
@@ -3948,7 +3948,7 @@
         <v>21</v>
       </c>
       <c r="AR19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS19" t="n">
         <v>81</v>
@@ -3969,7 +3969,7 @@
         <v>26</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
         <v>81</v>
@@ -4019,46 +4019,46 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="H20" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="I20" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O20" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R20" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U20" t="n">
         <v>1.67</v>
@@ -4067,16 +4067,16 @@
         <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X20" t="n">
         <v>34</v>
       </c>
       <c r="Y20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA20" t="n">
         <v>41</v>
@@ -4088,10 +4088,10 @@
         <v>17</v>
       </c>
       <c r="AD20" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>41</v>
@@ -4103,13 +4103,13 @@
         <v>9.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ20" t="n">
         <v>8.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>11</v>
@@ -4118,16 +4118,16 @@
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR20" t="n">
         <v>101</v>
@@ -4136,25 +4136,25 @@
         <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU20" t="n">
         <v>8</v>
       </c>
       <c r="AV20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW20" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY20" t="n">
         <v>15</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA20" t="n">
         <v>41</v>
@@ -4201,22 +4201,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K21" t="n">
         <v>2.5</v>
       </c>
       <c r="L21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -4243,16 +4243,16 @@
         <v>3.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
         <v>9</v>
       </c>
       <c r="X21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
@@ -4267,10 +4267,10 @@
         <v>21</v>
       </c>
       <c r="AC21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -4282,7 +4282,7 @@
         <v>151</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
         <v>34</v>
@@ -4300,16 +4300,16 @@
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP21" t="n">
         <v>15</v>
       </c>
       <c r="AQ21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR21" t="n">
         <v>41</v>
@@ -4327,22 +4327,22 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA21" t="n">
         <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC21" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -2199,13 +2199,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
         <v>2.2</v>
@@ -2268,7 +2268,7 @@
         <v>19</v>
       </c>
       <c r="AD10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
@@ -2319,7 +2319,7 @@
         <v>3.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
         <v>41</v>
@@ -2927,22 +2927,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H14" t="n">
         <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K14" t="n">
         <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2990,7 +2990,7 @@
         <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
         <v>13</v>
@@ -3056,13 +3056,13 @@
         <v>3.75</v>
       </c>
       <c r="AX14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>19</v>
       </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
         <v>41</v>
@@ -3071,7 +3071,7 @@
         <v>126</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -3473,13 +3473,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
@@ -3503,10 +3503,10 @@
         <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3521,19 +3521,19 @@
         <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB17" t="n">
         <v>29</v>
@@ -3554,10 +3554,10 @@
         <v>351</v>
       </c>
       <c r="AH17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>13</v>
@@ -3596,7 +3596,7 @@
         <v>8.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW17" t="n">
         <v>5.5</v>
@@ -3605,7 +3605,7 @@
         <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ17" t="n">
         <v>67</v>
@@ -3655,16 +3655,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K18" t="n">
         <v>2.3</v>
@@ -3703,16 +3703,16 @@
         <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
         <v>13</v>
@@ -3724,7 +3724,7 @@
         <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3748,16 +3748,16 @@
         <v>51</v>
       </c>
       <c r="AL18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP18" t="n">
         <v>19</v>
@@ -3781,7 +3781,7 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX18" t="n">
         <v>26</v>
@@ -4019,19 +4019,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H20" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="J20" t="n">
         <v>5.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L20" t="n">
         <v>2.05</v>
@@ -4040,25 +4040,25 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R20" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U20" t="n">
         <v>1.67</v>
@@ -4067,10 +4067,10 @@
         <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y20" t="n">
         <v>17</v>
@@ -4085,7 +4085,7 @@
         <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD20" t="n">
         <v>8.5</v>
@@ -4100,7 +4100,7 @@
         <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI20" t="n">
         <v>8.5</v>
@@ -4112,13 +4112,13 @@
         <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
@@ -4136,13 +4136,13 @@
         <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU20" t="n">
         <v>8</v>
       </c>
       <c r="AV20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW20" t="n">
         <v>3.75</v>
@@ -4151,7 +4151,7 @@
         <v>7.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ20" t="n">
         <v>21</v>
@@ -4201,16 +4201,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H21" t="n">
         <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K21" t="n">
         <v>2.5</v>
@@ -4222,7 +4222,7 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
         <v>1.17</v>
@@ -4249,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X21" t="n">
         <v>8</v>
@@ -4258,7 +4258,7 @@
         <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA21" t="n">
         <v>11</v>
@@ -4267,31 +4267,31 @@
         <v>21</v>
       </c>
       <c r="AC21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
         <v>9</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="n">
         <v>41</v>
@@ -4306,7 +4306,7 @@
         <v>7</v>
       </c>
       <c r="AP21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ21" t="n">
         <v>19</v>
@@ -4321,7 +4321,7 @@
         <v>3.5</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
@@ -4330,7 +4330,7 @@
         <v>8</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY21" t="n">
         <v>34</v>
@@ -4339,7 +4339,7 @@
         <v>101</v>
       </c>
       <c r="BA21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB21" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
         <v>3.6</v>
@@ -768,7 +768,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -777,10 +777,10 @@
         <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -801,19 +801,19 @@
         <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -825,43 +825,43 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
         <v>2.63</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H6" t="n">
         <v>4.1</v>
@@ -1513,10 +1513,10 @@
         <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1525,7 +1525,7 @@
         <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
         <v>9.5</v>
@@ -1537,7 +1537,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
         <v>8</v>
@@ -1546,19 +1546,19 @@
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
         <v>501</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
         <v>81</v>
@@ -1579,7 +1579,7 @@
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1597,7 +1597,7 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
         <v>41</v>
@@ -1612,7 +1612,7 @@
         <v>201</v>
       </c>
       <c r="BB6" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BC6" t="n">
         <v>151</v>
@@ -3837,19 +3837,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I19" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K19" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L19" t="n">
         <v>5.5</v>
@@ -3861,16 +3861,16 @@
         <v>19</v>
       </c>
       <c r="O19" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R19" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S19" t="n">
         <v>1.25</v>
@@ -3894,7 +3894,7 @@
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA19" t="n">
         <v>11</v>
@@ -3906,7 +3906,7 @@
         <v>19</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3918,16 +3918,16 @@
         <v>126</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ19" t="n">
         <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL19" t="n">
         <v>41</v>
@@ -3939,13 +3939,13 @@
         <v>3.75</v>
       </c>
       <c r="AO19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP19" t="n">
         <v>15</v>
       </c>
       <c r="AQ19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR19" t="n">
         <v>34</v>
@@ -3957,25 +3957,25 @@
         <v>3.75</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
         <v>41</v>
       </c>
       <c r="AW19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY19" t="n">
         <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB19" t="n">
         <v>151</v>
@@ -4025,16 +4025,16 @@
         <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
         <v>2.4</v>
       </c>
       <c r="L20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -4148,13 +4148,13 @@
         <v>3.75</v>
       </c>
       <c r="AX20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY20" t="n">
         <v>17</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA20" t="n">
         <v>41</v>
@@ -4222,7 +4222,7 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O21" t="n">
         <v>1.17</v>
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -4431,16 +4431,16 @@
         <v>2.05</v>
       </c>
       <c r="W22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
@@ -4464,7 +4464,7 @@
         <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI22" t="n">
         <v>13</v>
@@ -4509,16 +4509,16 @@
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY22" t="n">
         <v>23</v>
       </c>
       <c r="AZ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA22" t="n">
         <v>67</v>
@@ -4637,7 +4637,7 @@
         <v>8</v>
       </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
@@ -4747,16 +4747,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -4765,22 +4765,22 @@
         <v>3.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R24" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S24" t="n">
         <v>1.5</v>
@@ -4801,7 +4801,7 @@
         <v>12</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
         <v>26</v>
@@ -4825,7 +4825,7 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH24" t="n">
         <v>8</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -747,40 +747,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J2" t="n">
         <v>3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>7.5</v>
@@ -828,7 +828,7 @@
         <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -931,7 +931,7 @@
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -943,10 +943,10 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -976,7 +976,7 @@
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -1054,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
@@ -1116,13 +1116,13 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1149,10 +1149,10 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
         <v>7.5</v>
@@ -1164,16 +1164,16 @@
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA4" t="n">
         <v>21</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1185,10 +1185,10 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1197,7 +1197,7 @@
         <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
         <v>26</v>
@@ -1221,7 +1221,7 @@
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
         <v>2.63</v>
@@ -1471,40 +1471,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L6" t="n">
         <v>7.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L6" t="n">
-        <v>7</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1513,10 +1513,10 @@
         <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1528,16 +1528,16 @@
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
         <v>8</v>
@@ -1561,13 +1561,13 @@
         <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN6" t="n">
         <v>3.25</v>
@@ -1579,7 +1579,7 @@
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1591,13 +1591,13 @@
         <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX6" t="n">
         <v>41</v>
@@ -1615,7 +1615,7 @@
         <v>451</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1683,10 +1683,10 @@
         <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1835,13 +1835,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
         <v>2.88</v>
@@ -1865,10 +1865,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -2164,7 +2164,7 @@
         <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -2229,10 +2229,10 @@
         <v>5.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S10" t="n">
         <v>1.25</v>
@@ -2381,16 +2381,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
@@ -2402,7 +2402,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
@@ -2450,7 +2450,7 @@
         <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2471,10 +2471,10 @@
         <v>9.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="n">
         <v>26</v>
@@ -2581,10 +2581,10 @@
         <v>2.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
@@ -2593,10 +2593,10 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2763,22 +2763,22 @@
         <v>2.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -3497,10 +3497,10 @@
         <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="n">
         <v>2.1</v>
@@ -3655,16 +3655,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K18" t="n">
         <v>2.3</v>
@@ -3703,16 +3703,16 @@
         <v>2</v>
       </c>
       <c r="W18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X18" t="n">
         <v>8</v>
-      </c>
-      <c r="X18" t="n">
-        <v>8.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
         <v>13</v>
@@ -3724,7 +3724,7 @@
         <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3748,16 +3748,16 @@
         <v>51</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP18" t="n">
         <v>19</v>
@@ -3781,7 +3781,7 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
         <v>26</v>
@@ -4019,13 +4019,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
@@ -4049,10 +4049,10 @@
         <v>4.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R20" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S20" t="n">
         <v>1.3</v>
@@ -4073,13 +4073,13 @@
         <v>29</v>
       </c>
       <c r="Y20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
         <v>51</v>
       </c>
       <c r="AA20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="n">
         <v>41</v>
@@ -4088,7 +4088,7 @@
         <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4100,7 +4100,7 @@
         <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI20" t="n">
         <v>8.5</v>
@@ -4222,19 +4222,19 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R21" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S21" t="n">
         <v>1.29</v>
@@ -4294,13 +4294,13 @@
         <v>81</v>
       </c>
       <c r="AL21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO21" t="n">
         <v>7</v>
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J22" t="n">
         <v>3.2</v>
@@ -4398,7 +4398,7 @@
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -4467,13 +4467,13 @@
         <v>9.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL22" t="n">
         <v>21</v>
@@ -4482,16 +4482,16 @@
         <v>29</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
         <v>23</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR22" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -943,10 +943,10 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -1474,7 +1474,7 @@
         <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I6" t="n">
         <v>8</v>
@@ -1495,34 +1495,34 @@
         <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.98</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.88</v>
-      </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
@@ -1537,10 +1537,10 @@
         <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
@@ -1549,7 +1549,7 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH6" t="n">
         <v>17</v>
@@ -1561,13 +1561,13 @@
         <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
         <v>3.25</v>
@@ -1582,16 +1582,16 @@
         <v>21</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
@@ -1612,7 +1612,7 @@
         <v>201</v>
       </c>
       <c r="BB6" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
@@ -1683,7 +1683,7 @@
         <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
         <v>1.8</v>
@@ -1704,13 +1704,13 @@
         <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
         <v>17</v>
@@ -1719,13 +1719,13 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
@@ -1734,19 +1734,19 @@
         <v>301</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
         <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1755,16 +1755,16 @@
         <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
@@ -1794,7 +1794,7 @@
         <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1886,19 +1886,19 @@
         <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
         <v>19</v>
       </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>10</v>
@@ -1913,22 +1913,22 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
         <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
@@ -1937,16 +1937,16 @@
         <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
@@ -1961,10 +1961,10 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
         <v>26</v>
@@ -1979,7 +1979,7 @@
         <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2026,13 +2026,13 @@
         <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2077,7 +2077,7 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
@@ -2098,19 +2098,19 @@
         <v>351</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
         <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
@@ -2122,7 +2122,7 @@
         <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
@@ -2140,7 +2140,7 @@
         <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
         <v>5</v>
@@ -2381,22 +2381,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2429,7 +2429,7 @@
         <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
         <v>15</v>
@@ -2441,7 +2441,7 @@
         <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
         <v>29</v>
@@ -2450,7 +2450,7 @@
         <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2468,22 +2468,22 @@
         <v>12</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM11" t="n">
         <v>23</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>26</v>
       </c>
       <c r="AN11" t="n">
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
@@ -2510,7 +2510,7 @@
         <v>4.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY11" t="n">
         <v>21</v>
@@ -2563,13 +2563,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2587,16 +2587,16 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2671,28 +2671,28 @@
         <v>26</v>
       </c>
       <c r="AQ12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
         <v>81</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
         <v>2.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2754,13 +2754,13 @@
         <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2793,7 +2793,7 @@
         <v>1.95</v>
       </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -2826,7 +2826,7 @@
         <v>251</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI13" t="n">
         <v>8.5</v>
@@ -2927,22 +2927,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
         <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2975,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X14" t="n">
         <v>23</v>
@@ -2990,7 +2990,7 @@
         <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
         <v>13</v>
@@ -3056,13 +3056,13 @@
         <v>3.75</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY14" t="n">
         <v>19</v>
       </c>
       <c r="AZ14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA14" t="n">
         <v>41</v>
@@ -3133,16 +3133,16 @@
         <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3297,16 +3297,16 @@
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -3321,10 +3321,10 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3339,10 +3339,10 @@
         <v>1.95</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
@@ -3473,13 +3473,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
@@ -3494,7 +3494,7 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
@@ -3515,22 +3515,22 @@
         <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
         <v>17</v>
@@ -3551,13 +3551,13 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH17" t="n">
         <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>13</v>
@@ -3566,7 +3566,7 @@
         <v>41</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM17" t="n">
         <v>41</v>
@@ -3596,7 +3596,7 @@
         <v>8.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
         <v>5.5</v>
@@ -3605,7 +3605,7 @@
         <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ17" t="n">
         <v>67</v>
@@ -3655,16 +3655,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K18" t="n">
         <v>2.3</v>
@@ -3703,16 +3703,16 @@
         <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
         <v>13</v>
@@ -3724,7 +3724,7 @@
         <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3748,16 +3748,16 @@
         <v>51</v>
       </c>
       <c r="AL18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP18" t="n">
         <v>19</v>
@@ -3781,7 +3781,7 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX18" t="n">
         <v>26</v>
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
@@ -4434,13 +4434,13 @@
         <v>9</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
         <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
@@ -4476,7 +4476,7 @@
         <v>29</v>
       </c>
       <c r="AL22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM22" t="n">
         <v>29</v>
@@ -4503,7 +4503,7 @@
         <v>2.75</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H23" t="n">
         <v>4.1</v>
@@ -4607,10 +4607,10 @@
         <v>3.4</v>
       </c>
       <c r="U23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W23" t="n">
         <v>9</v>
@@ -4637,7 +4637,7 @@
         <v>8</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
@@ -4673,7 +4673,7 @@
         <v>17</v>
       </c>
       <c r="AQ23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
         <v>41</v>
@@ -4697,7 +4697,7 @@
         <v>23</v>
       </c>
       <c r="AY23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>81</v>
@@ -4747,16 +4747,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -4765,22 +4765,22 @@
         <v>3.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S24" t="n">
         <v>1.5</v>
@@ -4801,7 +4801,7 @@
         <v>12</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
         <v>26</v>
@@ -4825,7 +4825,7 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH24" t="n">
         <v>8</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rRWlnUeS</t>
+          <t>x40mil76</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,131 +728,131 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SA Bulo Bulo</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
         <v>3</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q2" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.8</v>
       </c>
-      <c r="V2" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -861,42 +861,46 @@
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>x40mil76</t>
+          <t>bJldkSyJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -916,121 +920,121 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.91</v>
       </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA3" t="n">
         <v>21</v>
       </c>
-      <c r="AA3" t="n">
-        <v>19</v>
-      </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM3" t="n">
         <v>34</v>
       </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
         <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1039,34 +1043,34 @@
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1078,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bJldkSyJ</t>
+          <t>pANE79im</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1098,160 +1102,160 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>1.91</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD4" t="n">
         <v>9</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
         <v>21</v>
       </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU4" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX4" t="n">
         <v>34</v>
       </c>
-      <c r="AN4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>17</v>
-      </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
         <v>201</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1260,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pANE79im</t>
+          <t>INLM5mMa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1280,97 +1284,97 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>1.42</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L5" t="n">
         <v>7</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W5" t="n">
         <v>6.5</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8</v>
-      </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
         <v>11</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AD5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE5" t="n">
         <v>21</v>
       </c>
-      <c r="AC5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH5" t="n">
         <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
@@ -1385,55 +1389,55 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
         <v>7</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>8</v>
-      </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1442,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INLM5mMa</t>
+          <t>xQyO3RjC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1462,157 +1466,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
         <v>29</v>
       </c>
       <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH6" t="n">
         <v>10</v>
       </c>
-      <c r="AD6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17</v>
-      </c>
       <c r="AI6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
         <v>41</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>81</v>
-      </c>
       <c r="AL6" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1624,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>xQyO3RjC</t>
+          <t>l45tM86t</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1644,31 +1648,31 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1677,100 +1681,100 @@
         <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH7" t="n">
         <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
         <v>13</v>
       </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11</v>
-      </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1779,25 +1783,25 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
         <v>67</v>
       </c>
-      <c r="BA7" t="n">
-        <v>101</v>
-      </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1806,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>l45tM86t</t>
+          <t>pjuW15LO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1816,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1826,67 +1830,67 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9.5</v>
@@ -1898,43 +1902,43 @@
         <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI8" t="n">
         <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
         <v>13</v>
@@ -1949,13 +1953,13 @@
         <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1964,22 +1968,22 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1988,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pjuW15LO</t>
+          <t>W4SkpHgl</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1998,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>1.48</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>2.6</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
         <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX9" t="n">
         <v>21</v>
       </c>
-      <c r="AA9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
+      <c r="AY9" t="n">
         <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W4SkpHgl</t>
+          <t>0pK6tZhD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2190,169 +2194,169 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.67</v>
       </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="V10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
         <v>4.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>19</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W10" t="n">
-        <v>11</v>
-      </c>
-      <c r="X10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AX10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>41</v>
       </c>
-      <c r="AS10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>67</v>
-      </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
         <v>126</v>
       </c>
       <c r="BC10" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0pK6tZhD</t>
+          <t>SjCh4xoK</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2372,85 +2376,85 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="R11" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W11" t="n">
         <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
         <v>11</v>
       </c>
-      <c r="Z11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>12</v>
-      </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2459,46 +2463,46 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
         <v>17</v>
       </c>
       <c r="AM11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
         <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
         <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
         <v>7.5</v>
@@ -2507,7 +2511,7 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX11" t="n">
         <v>12</v>
@@ -2522,7 +2526,7 @@
         <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
         <v>501</v>
@@ -2534,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SjCh4xoK</t>
+          <t>hUDL3zAe</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2554,31 +2558,31 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2605,100 +2609,100 @@
         <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W12" t="n">
+        <v>12</v>
+      </c>
+      <c r="X12" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
         <v>11</v>
       </c>
-      <c r="X12" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10</v>
-      </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM12" t="n">
         <v>26</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT12" t="n">
         <v>2.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>51</v>
@@ -2707,7 +2711,7 @@
         <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
         <v>126</v>
@@ -2716,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hUDL3zAe</t>
+          <t>8f5RPzfE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2736,85 +2740,85 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H13" t="n">
         <v>4.1</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V13" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA13" t="n">
         <v>41</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>34</v>
       </c>
       <c r="AB13" t="n">
         <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
@@ -2823,37 +2827,37 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ13" t="n">
         <v>8.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR13" t="n">
         <v>101</v>
@@ -2862,7 +2866,7 @@
         <v>201</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -2871,34 +2875,34 @@
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX13" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD13" t="n">
         <v>151</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8f5RPzfE</t>
+          <t>EmpteY76</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2918,85 +2922,85 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.67</v>
       </c>
-      <c r="J14" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
-        <v>13</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.08</v>
-      </c>
       <c r="S14" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X14" t="n">
         <v>15</v>
       </c>
-      <c r="X14" t="n">
-        <v>23</v>
-      </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AB14" t="n">
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
@@ -3005,82 +3009,82 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI14" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AO14" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP14" t="n">
         <v>29</v>
       </c>
       <c r="AQ14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR14" t="n">
         <v>81</v>
       </c>
-      <c r="AR14" t="n">
-        <v>101</v>
-      </c>
       <c r="AS14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB14" t="n">
         <v>201</v>
       </c>
-      <c r="AT14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB14" t="n">
+      <c r="BC14" t="n">
         <v>126</v>
       </c>
-      <c r="BC14" t="n">
-        <v>501</v>
-      </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EmpteY76</t>
+          <t>8A5F9XMa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3100,85 +3104,85 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="S15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
         <v>15</v>
       </c>
-      <c r="Y15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>34</v>
-      </c>
       <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
         <v>26</v>
       </c>
-      <c r="AB15" t="n">
-        <v>34</v>
-      </c>
       <c r="AC15" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -3187,46 +3191,46 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO15" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AP15" t="n">
         <v>21</v>
       </c>
-      <c r="AL15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU15" t="n">
         <v>8</v>
@@ -3235,19 +3239,19 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
         <v>201</v>
@@ -3262,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8A5F9XMa</t>
+          <t>xYeBnjDs</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3282,85 +3286,85 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="H16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.6</v>
       </c>
-      <c r="I16" t="n">
-        <v>4.2</v>
-      </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W16" t="n">
         <v>7</v>
       </c>
       <c r="X16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>11</v>
-      </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3369,70 +3373,70 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
         <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
         <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX16" t="n">
         <v>21</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>23</v>
       </c>
       <c r="AY16" t="n">
         <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
         <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC16" t="n">
         <v>126</v>
@@ -3444,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>xYeBnjDs</t>
+          <t>EeAuXi1s</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3464,85 +3468,85 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Wrexham</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Mansfield</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R17" t="n">
         <v>2.05</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="S17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8</v>
+      </c>
+      <c r="X17" t="n">
         <v>8.5</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W17" t="n">
-        <v>7</v>
-      </c>
-      <c r="X17" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3551,82 +3555,82 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
         <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR17" t="n">
         <v>41</v>
       </c>
-      <c r="AR17" t="n">
-        <v>67</v>
-      </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY17" t="n">
         <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA17" t="n">
         <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EeAuXi1s</t>
+          <t>MZlGlqgt</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3641,138 +3645,138 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mansfield</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="J18" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W18" t="n">
+        <v>9</v>
+      </c>
+      <c r="X18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
         <v>13</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2</v>
-      </c>
-      <c r="W18" t="n">
-        <v>8</v>
-      </c>
-      <c r="X18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
         <v>201</v>
       </c>
       <c r="AH18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI18" t="n">
         <v>15</v>
       </c>
-      <c r="AI18" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>41</v>
       </c>
-      <c r="AN18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>26</v>
-      </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3781,34 +3785,34 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>YLnqVaS1</t>
+          <t>MyS7z3gR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3818,65 +3822,65 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="H19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I19" t="n">
         <v>4.75</v>
       </c>
-      <c r="I19" t="n">
-        <v>6.25</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="S19" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="T19" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="U19" t="n">
         <v>1.62</v>
@@ -3885,7 +3889,7 @@
         <v>2.2</v>
       </c>
       <c r="W19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X19" t="n">
         <v>9</v>
@@ -3894,103 +3898,103 @@
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN19" t="n">
         <v>3.75</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AR19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>81</v>
       </c>
-      <c r="AT19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>101</v>
-      </c>
       <c r="BA19" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="n">
         <v>151</v>
       </c>
       <c r="BC19" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD19" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0Eadv45F</t>
+          <t>tznSwPz8</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4000,900 +4004,172 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Rampla Juniors</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.6</v>
       </c>
-      <c r="J20" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="S20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7</v>
+      </c>
+      <c r="X20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO20" t="n">
         <v>15</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W20" t="n">
-        <v>17</v>
-      </c>
-      <c r="X20" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>26</v>
       </c>
       <c r="AP20" t="n">
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
         <v>81</v>
       </c>
-      <c r="AR20" t="n">
-        <v>101</v>
-      </c>
       <c r="AS20" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AX20" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AY20" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BA20" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC20" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD20" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>xfgzXLck</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Roda</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Vitesse</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
-        <v>15</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X21" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MZlGlqgt</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Hibernian</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Aberdeen</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>10</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W22" t="n">
-        <v>9</v>
-      </c>
-      <c r="X22" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>MyS7z3gR</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Almeria</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Cordoba</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>15</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W23" t="n">
-        <v>9</v>
-      </c>
-      <c r="X23" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>tznSwPz8</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Rampla Juniors</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Liverpool M.</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
-        <v>9</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X24" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD24" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H5" t="n">
         <v>4.33</v>
       </c>
       <c r="I5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
         <v>1.95</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
         <v>7</v>
@@ -1350,7 +1350,7 @@
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
         <v>12</v>
@@ -1380,7 +1380,7 @@
         <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
         <v>81</v>
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
         <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
         <v>4.5</v>
@@ -1511,10 +1511,10 @@
         <v>1.85</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
         <v>1.83</v>
@@ -1535,19 +1535,19 @@
         <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
@@ -1556,7 +1556,7 @@
         <v>301</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
@@ -1577,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
@@ -1592,7 +1592,7 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
@@ -1601,7 +1601,7 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
         <v>21</v>
@@ -1610,13 +1610,13 @@
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
         <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1705,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
         <v>11</v>
@@ -1738,7 +1738,7 @@
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1747,13 +1747,13 @@
         <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN7" t="n">
         <v>4.33</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1887,16 +1887,16 @@
         <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
         <v>9.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
         <v>19</v>
@@ -1920,16 +1920,16 @@
         <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
         <v>29</v>
@@ -1941,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1962,13 +1962,13 @@
         <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
@@ -2272,7 +2272,7 @@
         <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
@@ -2293,10 +2293,10 @@
         <v>9.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="n">
         <v>26</v>
@@ -3316,7 +3316,7 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -3689,10 +3689,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
@@ -4170,6 +4170,188 @@
         <v>51</v>
       </c>
       <c r="BD20" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UeSMa6cR</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD21" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>x40mil76</t>
+          <t>ncn5KflI</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P2" t="n">
         <v>2</v>
       </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX2" t="n">
         <v>19</v>
       </c>
-      <c r="AA2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>21</v>
-      </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
         <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bJldkSyJ</t>
+          <t>dfKzglAQ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,47 +910,47 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -962,7 +962,7 @@
         <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -971,118 +971,118 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH3" t="n">
         <v>29</v>
       </c>
-      <c r="AC3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>9</v>
-      </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>501</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
         <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pANE79im</t>
+          <t>x40mil76</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,85 +1102,85 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.91</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="V4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W4" t="n">
         <v>6.5</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
         <v>8</v>
       </c>
-      <c r="X4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>15</v>
-      </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1189,73 +1189,73 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>401</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
         <v>201</v>
       </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>101</v>
-      </c>
       <c r="AT4" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC4" t="n">
         <v>126</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>501</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INLM5mMa</t>
+          <t>bJldkSyJ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,160 +1284,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.4</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X5" t="n">
         <v>11</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
       </c>
       <c r="AC5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
         <v>11</v>
       </c>
-      <c r="AD5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AJ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
         <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>xQyO3RjC</t>
+          <t>pANE79im</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
         <v>1.91</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.6</v>
-      </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
         <v>4.5</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T6" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE6" t="n">
         <v>17</v>
       </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO6" t="n">
         <v>7</v>
       </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AP6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>19</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
+      <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX6" t="n">
         <v>34</v>
       </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ6" t="n">
+      <c r="AY6" t="n">
         <v>34</v>
       </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
         <v>201</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>l45tM86t</t>
+          <t>INLM5mMa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,157 +1648,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
         <v>3</v>
       </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.73</v>
       </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
       <c r="W7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y7" t="n">
         <v>8.5</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
         <v>11</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AD7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>21</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>401</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP7" t="n">
         <v>19</v>
       </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pjuW15LO</t>
+          <t>xQyO3RjC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,142 +1830,142 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y8" t="n">
         <v>8.5</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
       <c r="Z8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
         <v>19</v>
       </c>
-      <c r="AA8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK8" t="n">
         <v>34</v>
       </c>
-      <c r="AC8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="AN8" t="n">
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
@@ -1980,7 +1980,7 @@
         <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W4SkpHgl</t>
+          <t>l45tM86t</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,165 +2007,165 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
         <v>19</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
         <v>11</v>
       </c>
-      <c r="X9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AJ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
         <v>8</v>
       </c>
-      <c r="AE9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7</v>
-      </c>
       <c r="AV9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
         <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0pK6tZhD</t>
+          <t>pjuW15LO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.2</v>
       </c>
-      <c r="L10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>12</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.83</v>
-      </c>
       <c r="R10" t="n">
-        <v>2.03</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.5</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
         <v>67</v>
       </c>
       <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
         <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SjCh4xoK</t>
+          <t>W4SkpHgl</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,169 +2376,169 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N11" t="n">
+        <v>19</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T11" t="n">
         <v>3.75</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="V11" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="W11" t="n">
         <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
         <v>12</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AB11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF11" t="n">
         <v>34</v>
       </c>
-      <c r="AA11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AG11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK11" t="n">
         <v>34</v>
       </c>
-      <c r="AC11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AL11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS11" t="n">
+      <c r="AX11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD11" t="n">
         <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hUDL3zAe</t>
+          <t>0pK6tZhD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,37 +2558,37 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="J12" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2597,121 +2597,121 @@
         <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V12" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W12" t="n">
+        <v>10</v>
+      </c>
+      <c r="X12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
         <v>12</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>23</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AK12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>15</v>
       </c>
-      <c r="Z12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH12" t="n">
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
         <v>7.5</v>
       </c>
-      <c r="AI12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
         <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD12" t="n">
         <v>126</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8f5RPzfE</t>
+          <t>SjCh4xoK</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,169 +2740,169 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="J13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN13" t="n">
         <v>5.5</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>13</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
-      </c>
-      <c r="W13" t="n">
-        <v>17</v>
-      </c>
-      <c r="X13" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AO13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX13" t="n">
         <v>12</v>
       </c>
-      <c r="AL13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>8</v>
-      </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="BA13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="n">
         <v>501</v>
       </c>
       <c r="BD13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EmpteY76</t>
+          <t>hUDL3zAe</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,85 +2922,85 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="J14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
         <v>3.75</v>
       </c>
-      <c r="K14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
       <c r="Q14" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.95</v>
       </c>
-      <c r="V14" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="X14" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y14" t="n">
         <v>15</v>
       </c>
-      <c r="Y14" t="n">
-        <v>12</v>
-      </c>
       <c r="Z14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA14" t="n">
         <v>34</v>
       </c>
-      <c r="AA14" t="n">
-        <v>26</v>
-      </c>
       <c r="AB14" t="n">
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
@@ -3009,70 +3009,70 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>351</v>
+        <v>7.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="AN14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AP14" t="n">
         <v>29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
         <v>126</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8A5F9XMa</t>
+          <t>8f5RPzfE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,85 +3104,85 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>1.57</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="X15" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AA15" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -3191,46 +3191,46 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>251</v>
+        <v>8</v>
       </c>
       <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>12</v>
       </c>
-      <c r="AI15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>15</v>
-      </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AL15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP15" t="n">
         <v>34</v>
       </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU15" t="n">
         <v>8</v>
@@ -3239,34 +3239,34 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="AX15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>23</v>
       </c>
-      <c r="AY15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>81</v>
-      </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC15" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>xYeBnjDs</t>
+          <t>EmpteY76</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,31 +3286,31 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Wrexham</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
         <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -3319,46 +3319,46 @@
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V16" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
         <v>8.5</v>
@@ -3373,46 +3373,46 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>301</v>
+        <v>7</v>
       </c>
       <c r="AH16" t="n">
         <v>10</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP16" t="n">
         <v>29</v>
       </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU16" t="n">
         <v>8.5</v>
@@ -3421,22 +3421,22 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX16" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA16" t="n">
         <v>67</v>
       </c>
-      <c r="BA16" t="n">
-        <v>101</v>
-      </c>
       <c r="BB16" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC16" t="n">
         <v>126</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EeAuXi1s</t>
+          <t>8A5F9XMa</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,64 +3468,64 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mansfield</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="S17" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T17" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
         <v>8.5</v>
@@ -3534,19 +3534,19 @@
         <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3555,46 +3555,46 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
         <v>15</v>
       </c>
-      <c r="AI17" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AK17" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="AN17" t="n">
         <v>3.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AR17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU17" t="n">
         <v>8</v>
@@ -3603,10 +3603,10 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
         <v>29</v>
@@ -3621,16 +3621,16 @@
         <v>201</v>
       </c>
       <c r="BC17" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MZlGlqgt</t>
+          <t>UeSMa6cR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,59 +3640,59 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
         <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
@@ -3701,34 +3701,34 @@
         <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3737,40 +3737,40 @@
         <v>41</v>
       </c>
       <c r="AG18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
         <v>201</v>
       </c>
-      <c r="AH18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>29</v>
-      </c>
       <c r="AN18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO18" t="n">
         <v>13</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
         <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
         <v>151</v>
@@ -3785,13 +3785,13 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
         <v>51</v>
@@ -3803,555 +3803,9 @@
         <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD18" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MyS7z3gR</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Almeria</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Cordoba</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>15</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W19" t="n">
-        <v>9</v>
-      </c>
-      <c r="X19" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>tznSwPz8</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Rampla Juniors</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Liverpool M.</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W20" t="n">
-        <v>7</v>
-      </c>
-      <c r="X20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>UeSMa6cR</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>18:45</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Miramar</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
-        <v>11</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X21" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD21" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>2.63</v>
       </c>
       <c r="I2" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J2" t="n">
         <v>4.33</v>
@@ -798,7 +798,7 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
@@ -828,13 +828,13 @@
         <v>5.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pjuW15LO</t>
+          <t>UeSMa6cR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,354 +1092,172 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.4</v>
       </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
       </c>
       <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
         <v>67</v>
       </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>101</v>
-      </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>UeSMa6cR</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>18:45</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Miramar</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UeSMa6cR</t>
+          <t>8nJEo620</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,143 +1092,143 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L4" t="n">
         <v>3.1</v>
       </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.6</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="n">
         <v>11</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="Z4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
         <v>8.5</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH4" t="n">
         <v>11</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AI4" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AJ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK4" t="n">
         <v>21</v>
       </c>
-      <c r="AA4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>23</v>
-      </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS4" t="n">
         <v>201</v>
       </c>
-      <c r="AN4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1237,27 +1237,209 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
         <v>67</v>
       </c>
       <c r="BB4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>UeSMa6cR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
         <v>151</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV5" t="n">
         <v>51</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="AW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD5" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
         <v>2.63</v>
       </c>
       <c r="I2" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -783,25 +783,25 @@
         <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T2" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
@@ -810,13 +810,13 @@
         <v>41</v>
       </c>
       <c r="AB2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC2" t="n">
         <v>4.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -825,16 +825,16 @@
         <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -846,16 +846,16 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR2" t="n">
         <v>151</v>
@@ -864,7 +864,7 @@
         <v>501</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU2" t="n">
         <v>11</v>
@@ -873,16 +873,16 @@
         <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
@@ -947,10 +947,10 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -1007,7 +1007,7 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>29</v>
@@ -1019,7 +1019,7 @@
         <v>67</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1028,7 +1028,7 @@
         <v>501</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
         <v>8.5</v>
@@ -1049,7 +1049,7 @@
         <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
         <v>2.63</v>
       </c>
       <c r="I2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -777,10 +777,10 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S2" t="n">
         <v>1.8</v>
@@ -795,13 +795,13 @@
         <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
@@ -810,13 +810,13 @@
         <v>41</v>
       </c>
       <c r="AB2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="n">
         <v>4.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -828,13 +828,13 @@
         <v>5</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="n">
         <v>151</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dfKzglAQ</t>
+          <t>QRwclaLb</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,131 +910,131 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Tomayapo</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
+        <v>13</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8</v>
+      </c>
+      <c r="X3" t="n">
         <v>9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6</v>
-      </c>
-      <c r="X3" t="n">
-        <v>7</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC3" t="n">
         <v>12</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP3" t="n">
         <v>19</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>29</v>
@@ -1043,46 +1043,42 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
         <v>201</v>
       </c>
-      <c r="AT3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>126</v>
-      </c>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8nJEo620</t>
+          <t>dfKzglAQ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1088,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,37 +1098,37 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1141,88 +1137,88 @@
         <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.7</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="n">
         <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>26</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
       </c>
       <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>451</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO4" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR4" t="n">
         <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>81</v>
       </c>
       <c r="AS4" t="n">
         <v>201</v>
@@ -1231,28 +1227,28 @@
         <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1264,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UeSMa6cR</t>
+          <t>8nJEo620</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,172 +1270,354 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
         <v>3.1</v>
       </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.6</v>
-      </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
+        <v>9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
         <v>8.5</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH5" t="n">
         <v>11</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AI5" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AJ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK5" t="n">
         <v>21</v>
       </c>
-      <c r="AA5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AL5" t="n">
         <v>29</v>
       </c>
-      <c r="AC5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ5" t="n">
+      <c r="AM5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
         <v>29</v>
       </c>
-      <c r="AK5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
         <v>201</v>
       </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AX5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
         <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
         <v>67</v>
       </c>
       <c r="BB5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UeSMa6cR</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
         <v>151</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV6" t="n">
         <v>51</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="AW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
         <v>2.63</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -795,7 +795,7 @@
         <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -855,7 +855,7 @@
         <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR2" t="n">
         <v>151</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
@@ -965,7 +965,7 @@
         <v>2.05</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
         <v>3.25</v>
@@ -1143,10 +1143,10 @@
         <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
         <v>2.05</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,10 +750,10 @@
         <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -762,31 +762,31 @@
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
         <v>2.63</v>
@@ -795,7 +795,7 @@
         <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -810,25 +810,25 @@
         <v>41</v>
       </c>
       <c r="AB2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG2" t="n">
         <v>5</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -837,7 +837,7 @@
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -849,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -858,7 +858,7 @@
         <v>101</v>
       </c>
       <c r="AR2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS2" t="n">
         <v>501</v>
@@ -867,25 +867,25 @@
         <v>1.91</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AW2" t="n">
         <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -1621,6 +1621,182 @@
         <v>51</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>IN9VZckt</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>11</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W7" t="n">
+        <v>17</v>
+      </c>
+      <c r="X7" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.2</v>
@@ -801,7 +801,7 @@
         <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -885,7 +885,7 @@
         <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -959,10 +959,10 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S3" t="n">
         <v>1.33</v>
@@ -1116,7 +1116,7 @@
         <v>6.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1203,7 +1203,7 @@
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AN4" t="n">
         <v>3.4</v>
@@ -1382,7 +1382,7 @@
         <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
         <v>301</v>
@@ -1421,10 +1421,10 @@
         <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
         <v>67</v>
@@ -1653,13 +1653,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="H7" t="n">
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J7" t="n">
         <v>9.5</v>
@@ -1668,13 +1668,13 @@
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1683,10 +1683,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1777,7 +1777,7 @@
         <v>101</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AX7" t="n">
         <v>6.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QRwclaLb</t>
+          <t>IHflOxkg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,175 +910,177 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>Sarmiento Junin</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tomayapo</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>3.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>4.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.73</v>
       </c>
       <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW3" t="n">
         <v>4</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>8</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AX3" t="n">
         <v>15</v>
       </c>
-      <c r="AA3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AY3" t="n">
         <v>41</v>
       </c>
-      <c r="AG3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AZ3" t="n">
         <v>51</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="BA3" t="n">
         <v>126</v>
       </c>
-      <c r="AT3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>81</v>
-      </c>
       <c r="BB3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
+        <v>501</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dfKzglAQ</t>
+          <t>0tpgNd4a</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,116 +1090,116 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P4" t="n">
         <v>2.1</v>
       </c>
-      <c r="L4" t="n">
-        <v>6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.36</v>
       </c>
-      <c r="P4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>1.67</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH4" t="n">
         <v>12</v>
       </c>
-      <c r="AA4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK4" t="n">
         <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
@@ -1206,52 +1208,52 @@
         <v>501</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>451</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA4" t="n">
         <v>126</v>
       </c>
-      <c r="BA4" t="n">
-        <v>151</v>
-      </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>400</v>
       </c>
       <c r="BD4" t="n">
         <v>126</v>
@@ -1260,7 +1262,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8nJEo620</t>
+          <t>QRwclaLb</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1270,143 +1272,143 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Tomayapo</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
         <v>9</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W5" t="n">
-        <v>9</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
         <v>15</v>
       </c>
-      <c r="Y5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>34</v>
-      </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
       </c>
       <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR5" t="n">
         <v>51</v>
       </c>
-      <c r="AG5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1415,34 +1417,30 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
         <v>201</v>
       </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>126</v>
-      </c>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UeSMa6cR</t>
+          <t>dfKzglAQ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1452,179 +1450,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>1.62</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>6.25</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN6" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="AO6" t="n">
         <v>8.5</v>
       </c>
-      <c r="X6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AP6" t="n">
         <v>23</v>
       </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AQ6" t="n">
         <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
       </c>
       <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA6" t="n">
         <v>151</v>
       </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>67</v>
-      </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IN9VZckt</t>
+          <t>8nJEo620</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1634,53 +1632,53 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.36</v>
+        <v>2.38</v>
       </c>
       <c r="J7" t="n">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>1.91</v>
+        <v>3.1</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
         <v>2.1</v>
@@ -1695,107 +1693,289 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AN7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>51</v>
       </c>
-      <c r="AP7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>301</v>
-      </c>
       <c r="AR7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AS7" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
       <c r="AT7" t="n">
         <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>23</v>
       </c>
       <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IN9VZckt</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W8" t="n">
+        <v>17</v>
+      </c>
+      <c r="X8" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>21</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA8" t="n">
         <v>51</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB8" t="n">
         <v>251</v>
       </c>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,99 +626,99 @@
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_1-0_HT</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-0_HT</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-1_HT</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-0_HT</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-1_HT</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-0_HT</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1_HT</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2_HT</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-2_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4_HT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-0_HT</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-0_HT</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-1_HT</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-0_HT</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-1_HT</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-2_HT</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-0_HT</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-1_HT</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-2_HT</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4_HT</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ncn5KflI</t>
+          <t>IHflOxkg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,22 +738,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Sarmiento Junin</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J2" t="n">
         <v>4.75</v>
@@ -762,31 +762,31 @@
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
         <v>3.5</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="U2" t="n">
         <v>2.63</v>
@@ -798,10 +798,10 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y2" t="n">
         <v>15</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>17</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
@@ -813,7 +813,7 @@
         <v>67</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -825,82 +825,80 @@
         <v>126</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
       </c>
       <c r="AM2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>501</v>
       </c>
-      <c r="AN2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS2" t="n">
+      <c r="BA2" t="n">
         <v>501</v>
       </c>
-      <c r="AT2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV2" t="n">
+      <c r="BB2" t="n">
         <v>126</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
-      <c r="BD2" t="n">
-        <v>126</v>
-      </c>
+      <c r="BD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IHflOxkg</t>
+          <t>0tpgNd4a</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,167 +918,169 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sarmiento Junin</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
       </c>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AM3" t="n">
+        <v>4.5</v>
+      </c>
       <c r="AN3" t="n">
-        <v>5.5</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AP3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW3" t="n">
         <v>41</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>501</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4</v>
-      </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>400</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0tpgNd4a</t>
+          <t>QRwclaLb</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1090,179 +1090,175 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Union de Santa Fe</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Tomayapo</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>2.08</v>
       </c>
       <c r="S4" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
         <v>12</v>
       </c>
-      <c r="Y4" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AK4" t="n">
         <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>501</v>
+        <v>3.75</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
         <v>19</v>
       </c>
       <c r="AP4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>126</v>
+        <v>3.25</v>
       </c>
       <c r="AS4" t="n">
-        <v>451</v>
+        <v>8</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.1</v>
+        <v>51</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AV4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AX4" t="n">
         <v>81</v>
       </c>
-      <c r="AW4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>19</v>
-      </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BA4" t="n">
         <v>126</v>
       </c>
-      <c r="BB4" t="n">
-        <v>451</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>400</v>
-      </c>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>QRwclaLb</t>
+          <t>CdkDt8Jk</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1272,7 +1268,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1282,49 +1278,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>Blooming</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tomayapo</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
         <v>4.33</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1339,28 +1335,28 @@
         <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1369,78 +1365,78 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK5" t="n">
         <v>41</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>34</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
       </c>
       <c r="AM5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>201</v>
       </c>
-      <c r="AN5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>81</v>
-      </c>
       <c r="BA5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>201</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
+      <c r="BD5" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dfKzglAQ</t>
+          <t>8nJEo620</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1450,7 +1446,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1460,37 +1456,37 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>6.25</v>
+        <v>2.38</v>
       </c>
       <c r="J6" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1499,10 +1495,10 @@
         <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1511,118 +1507,118 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AS6" t="n">
         <v>8</v>
       </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AT6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY6" t="n">
         <v>67</v>
       </c>
-      <c r="AG6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
+      <c r="AZ6" t="n">
         <v>201</v>
       </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ6" t="n">
+      <c r="BA6" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB6" t="n">
         <v>126</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8nJEo620</t>
+          <t>d8a97mPJ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1632,7 +1628,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1642,85 +1638,85 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.38</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1732,79 +1728,79 @@
         <v>7.5</v>
       </c>
       <c r="AH7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="n">
         <v>11</v>
       </c>
-      <c r="AI7" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO7" t="n">
         <v>29</v>
       </c>
-      <c r="AM7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AP7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AV7" t="n">
         <v>17</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AW7" t="n">
         <v>29</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AX7" t="n">
         <v>51</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AY7" t="n">
         <v>81</v>
       </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IN9VZckt</t>
+          <t>SdZm05Hg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1814,41 +1810,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>9.5</v>
+        <v>2.05</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>1.36</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>9.5</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.91</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1860,13 +1856,13 @@
         <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -1875,107 +1871,289 @@
         <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
         <v>17</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AA8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>41</v>
       </c>
-      <c r="Y8" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>8</v>
-      </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
       </c>
       <c r="AM8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AY8" t="n">
         <v>101</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AZ8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>IN9VZckt</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
         <v>10</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W9" t="n">
+        <v>17</v>
+      </c>
+      <c r="X9" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN9" t="n">
         <v>51</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AO9" t="n">
         <v>51</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AP9" t="n">
         <v>301</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AQ9" t="n">
         <v>351</v>
       </c>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="n">
+      <c r="AR9" t="n">
         <v>2.63</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AS9" t="n">
         <v>11</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AT9" t="n">
         <v>101</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AU9" t="n">
         <v>3</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AV9" t="n">
         <v>6.5</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AW9" t="n">
         <v>23</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AX9" t="n">
         <v>21</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="AY9" t="n">
         <v>51</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="AZ9" t="n">
         <v>251</v>
       </c>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="n">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J2" t="n">
         <v>4.75</v>
@@ -762,13 +762,13 @@
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -798,7 +798,7 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
@@ -810,7 +810,7 @@
         <v>41</v>
       </c>
       <c r="AB2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="n">
         <v>4.75</v>
@@ -825,16 +825,16 @@
         <v>126</v>
       </c>
       <c r="AG2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -843,7 +843,7 @@
         <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AN2" t="n">
         <v>26</v>
@@ -870,7 +870,7 @@
         <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW2" t="n">
         <v>41</v>
@@ -951,10 +951,10 @@
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
         <v>3.1</v>
@@ -1127,10 +1127,10 @@
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
@@ -1139,10 +1139,10 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1465,19 +1465,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
         <v>3.1</v>
@@ -1489,16 +1489,16 @@
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1507,10 +1507,10 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W6" t="n">
         <v>9</v>
@@ -1531,7 +1531,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1567,7 +1567,7 @@
         <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP6" t="n">
         <v>51</v>
@@ -1600,7 +1600,7 @@
         <v>67</v>
       </c>
       <c r="AZ6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA6" t="n">
         <v>201</v>
@@ -1612,7 +1612,7 @@
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7">
@@ -1647,10 +1647,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
         <v>2.8</v>
@@ -1659,16 +1659,16 @@
         <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1683,19 +1683,19 @@
         <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
         <v>12</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD7" t="n">
         <v>5.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH7" t="n">
         <v>13</v>
@@ -1758,16 +1758,16 @@
         <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AS7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AT7" t="n">
         <v>67</v>
       </c>
       <c r="AU7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AV7" t="n">
         <v>17</v>
@@ -1779,13 +1779,13 @@
         <v>51</v>
       </c>
       <c r="AY7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AZ7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BA7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB7" t="n">
         <v>126</v>
@@ -1794,7 +1794,7 @@
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8">

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,28 +1109,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
@@ -1160,13 +1160,13 @@
         <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
         <v>13</v>
@@ -1175,10 +1175,10 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1187,16 +1187,16 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="n">
         <v>34</v>
@@ -1208,16 +1208,16 @@
         <v>3.75</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO4" t="n">
         <v>19</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>3.25</v>
@@ -1229,7 +1229,7 @@
         <v>51</v>
       </c>
       <c r="AU4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AV4" t="n">
         <v>23</v>
@@ -1241,7 +1241,7 @@
         <v>81</v>
       </c>
       <c r="AY4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AZ4" t="n">
         <v>201</v>
@@ -1489,10 +1489,10 @@
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q6" t="n">
         <v>2.08</v>
@@ -1659,7 +1659,7 @@
         <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
         <v>3.6</v>
@@ -1677,22 +1677,22 @@
         <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
         <v>7</v>
@@ -1704,7 +1704,7 @@
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
         <v>26</v>
@@ -1713,10 +1713,10 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>17</v>
@@ -1728,7 +1728,7 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI7" t="n">
         <v>11</v>
@@ -1758,7 +1758,7 @@
         <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AS7" t="n">
         <v>9</v>
@@ -1785,7 +1785,7 @@
         <v>301</v>
       </c>
       <c r="BA7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BB7" t="n">
         <v>126</v>
@@ -1794,7 +1794,7 @@
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8">
@@ -1982,7 +1982,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IN9VZckt</t>
+          <t>ph8fDbM8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1992,166 +1992,346 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="I9" t="n">
-        <v>1.36</v>
+        <v>2.5</v>
       </c>
       <c r="J9" t="n">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.2</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U9" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="n">
         <v>41</v>
       </c>
-      <c r="Y9" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>81</v>
-      </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
       </c>
       <c r="AM9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>301</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>IN9VZckt</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
         <v>10</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W10" t="n">
+        <v>17</v>
+      </c>
+      <c r="X10" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN10" t="n">
         <v>51</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO10" t="n">
         <v>51</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP10" t="n">
         <v>301</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ10" t="n">
         <v>351</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR10" t="n">
         <v>2.63</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS10" t="n">
         <v>11</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT10" t="n">
         <v>101</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU10" t="n">
         <v>3</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV10" t="n">
         <v>6.5</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW10" t="n">
         <v>23</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX10" t="n">
         <v>21</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY10" t="n">
         <v>51</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ10" t="n">
         <v>251</v>
       </c>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="n">
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="n">
         <v>101</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -798,7 +798,7 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
@@ -810,7 +810,7 @@
         <v>41</v>
       </c>
       <c r="AB2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC2" t="n">
         <v>4.75</v>
@@ -825,16 +825,16 @@
         <v>126</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -843,10 +843,10 @@
         <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
         <v>41</v>
@@ -870,7 +870,7 @@
         <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW2" t="n">
         <v>41</v>
@@ -927,16 +927,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>1.8</v>
@@ -945,10 +945,10 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.62</v>
@@ -984,10 +984,10 @@
         <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
         <v>51</v>
@@ -1008,7 +1008,7 @@
         <v>6</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>12</v>
@@ -1017,13 +1017,13 @@
         <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AN3" t="n">
         <v>19</v>
@@ -1053,7 +1053,7 @@
         <v>19</v>
       </c>
       <c r="AW3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AX3" t="n">
         <v>67</v>
@@ -1062,7 +1062,7 @@
         <v>126</v>
       </c>
       <c r="AZ3" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BA3" t="n">
         <v>451</v>
@@ -1127,16 +1127,16 @@
         <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
         <v>1.7</v>
@@ -2191,16 +2191,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
         <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
@@ -2209,10 +2209,10 @@
         <v>1.91</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2233,10 +2233,10 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W10" t="n">
         <v>17</v>
@@ -2248,19 +2248,19 @@
         <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AA10" t="n">
         <v>81</v>
       </c>
       <c r="AB10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AC10" t="n">
         <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE10" t="n">
         <v>29</v>
@@ -2272,13 +2272,13 @@
         <v>5</v>
       </c>
       <c r="AH10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
@@ -2296,7 +2296,7 @@
         <v>51</v>
       </c>
       <c r="AP10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AQ10" t="n">
         <v>351</v>
@@ -2305,7 +2305,7 @@
         <v>2.63</v>
       </c>
       <c r="AS10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT10" t="n">
         <v>101</v>
@@ -2320,7 +2320,7 @@
         <v>23</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,22 +771,22 @@
         <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T2" t="n">
         <v>2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.03</v>
       </c>
       <c r="U2" t="n">
         <v>2.63</v>
@@ -945,10 +945,10 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.62</v>
@@ -1109,13 +1109,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.25</v>
@@ -1139,10 +1139,10 @@
         <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1151,16 +1151,16 @@
         <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1190,7 +1190,7 @@
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1202,7 +1202,7 @@
         <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>3.75</v>
@@ -1211,7 +1211,7 @@
         <v>8.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1241,18 +1241,18 @@
         <v>81</v>
       </c>
       <c r="AY4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA4" t="n">
         <v>101</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>126</v>
       </c>
       <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1287,16 +1287,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
         <v>2.38</v>
@@ -1305,22 +1305,22 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1335,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
         <v>8.5</v>
@@ -1344,7 +1344,7 @@
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>12</v>
@@ -1356,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1365,7 +1365,7 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
@@ -1430,13 +1430,13 @@
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8nJEo620</t>
+          <t>d8a97mPJ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1456,118 +1456,118 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.1</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.4</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.08</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
         <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI6" t="n">
         <v>11</v>
       </c>
-      <c r="AI6" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AN6" t="n">
         <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP6" t="n">
         <v>51</v>
@@ -1576,34 +1576,34 @@
         <v>81</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AS6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AX6" t="n">
         <v>51</v>
       </c>
-      <c r="AU6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>41</v>
-      </c>
       <c r="AY6" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AZ6" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BA6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB6" t="n">
         <v>126</v>
@@ -1612,13 +1612,13 @@
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>d8a97mPJ</t>
+          <t>SdZm05Hg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,154 +1638,154 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U7" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
         <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AT7" t="n">
         <v>51</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>67</v>
-      </c>
       <c r="AU7" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AW7" t="n">
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AY7" t="n">
         <v>101</v>
       </c>
       <c r="AZ7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BA7" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
         <v>126</v>
@@ -1794,13 +1794,13 @@
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SdZm05Hg</t>
+          <t>ph8fDbM8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1810,164 +1810,164 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
         <v>6</v>
       </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10</v>
-      </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AP8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="AS8" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AU8" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AV8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AW8" t="n">
         <v>29</v>
       </c>
       <c r="AX8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AY8" t="n">
         <v>101</v>
       </c>
       <c r="AZ8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BA8" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BB8" t="n">
         <v>126</v>
@@ -1975,14 +1975,12 @@
       <c r="BC8" t="n">
         <v>126</v>
       </c>
-      <c r="BD8" t="n">
-        <v>301</v>
-      </c>
+      <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ph8fDbM8</t>
+          <t>IN9VZckt</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1992,346 +1990,166 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.5</v>
+        <v>1.33</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
         <v>1.91</v>
       </c>
-      <c r="L9" t="n">
-        <v>3.4</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.44</v>
       </c>
-      <c r="S9" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
+        <v>17</v>
+      </c>
+      <c r="X9" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>7.5</v>
       </c>
-      <c r="X9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>23</v>
-      </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="AN9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX9" t="n">
         <v>19</v>
       </c>
-      <c r="AO9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX9" t="n">
+      <c r="AY9" t="n">
         <v>51</v>
       </c>
-      <c r="AY9" t="n">
-        <v>101</v>
-      </c>
       <c r="AZ9" t="n">
-        <v>301</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>IN9VZckt</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Progreso</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Penarol</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>11</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J10" t="n">
-        <v>10</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W10" t="n">
-        <v>17</v>
-      </c>
-      <c r="X10" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ10" t="n">
         <v>251</v>
       </c>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="n">
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="n">
         <v>101</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.8</v>
@@ -798,7 +798,7 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
@@ -828,13 +828,13 @@
         <v>4.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -843,10 +843,10 @@
         <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO2" t="n">
         <v>41</v>
@@ -861,7 +861,7 @@
         <v>1.91</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>101</v>
@@ -870,7 +870,7 @@
         <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW2" t="n">
         <v>41</v>
@@ -945,10 +945,10 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.62</v>
@@ -957,10 +957,10 @@
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.67</v>
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1516,7 +1516,7 @@
         <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
@@ -1525,7 +1525,7 @@
         <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
@@ -1543,10 +1543,10 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>11</v>
@@ -1564,7 +1564,7 @@
         <v>4.5</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>29</v>
@@ -2015,7 +2015,7 @@
         <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="J9" t="n">
         <v>10</v>
@@ -2033,16 +2033,16 @@
         <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
         <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J2" t="n">
         <v>4.75</v>
@@ -768,7 +768,7 @@
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.8</v>
@@ -783,10 +783,10 @@
         <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
         <v>2.63</v>
@@ -825,7 +825,7 @@
         <v>126</v>
       </c>
       <c r="AG2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AH2" t="n">
         <v>9</v>
@@ -927,28 +927,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.62</v>
@@ -969,13 +969,13 @@
         <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
@@ -1002,7 +1002,7 @@
         <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>6</v>
@@ -1011,7 +1011,7 @@
         <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -1020,7 +1020,7 @@
         <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>4.75</v>
@@ -1029,7 +1029,7 @@
         <v>19</v>
       </c>
       <c r="AO3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP3" t="n">
         <v>67</v>
@@ -1050,22 +1050,22 @@
         <v>4.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW3" t="n">
         <v>34</v>
       </c>
       <c r="AX3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AY3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AZ3" t="n">
         <v>401</v>
       </c>
       <c r="BA3" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BB3" t="n">
         <v>400</v>
@@ -1080,7 +1080,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QRwclaLb</t>
+          <t>CdkDt8Jk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1100,22 +1100,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>Blooming</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tomayapo</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>2.25</v>
@@ -1124,25 +1124,25 @@
         <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1151,16 +1151,16 @@
         <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1184,13 +1184,13 @@
         <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1202,19 +1202,19 @@
         <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
         <v>3.75</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
         <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1229,10 +1229,10 @@
         <v>51</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1241,10 +1241,10 @@
         <v>81</v>
       </c>
       <c r="AY4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AZ4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA4" t="n">
         <v>101</v>
@@ -1252,13 +1252,13 @@
       <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CdkDt8Jk</t>
+          <t>d8a97mPJ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1273,170 +1273,174 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Blooming</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.38</v>
       </c>
-      <c r="L5" t="n">
-        <v>5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="U5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH5" t="n">
         <v>13</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>29</v>
       </c>
-      <c r="AI5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>51</v>
-      </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AV5" t="n">
         <v>17</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>26</v>
       </c>
       <c r="AW5" t="n">
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AY5" t="n">
         <v>101</v>
       </c>
       <c r="AZ5" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
       <c r="BD5" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>d8a97mPJ</t>
+          <t>SdZm05Hg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,154 +1460,154 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.95</v>
       </c>
-      <c r="L6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.05</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AS6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AT6" t="n">
         <v>67</v>
       </c>
       <c r="AU6" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AW6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AX6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AY6" t="n">
         <v>101</v>
       </c>
       <c r="AZ6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BA6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
         <v>126</v>
@@ -1612,13 +1616,13 @@
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SdZm05Hg</t>
+          <t>ph8fDbM8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1628,164 +1632,164 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>2.45</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AD7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
         <v>6</v>
       </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>10</v>
       </c>
-      <c r="AH7" t="n">
-        <v>19</v>
-      </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AP7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AQ7" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="AS7" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AU7" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AV7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AW7" t="n">
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AY7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AZ7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BA7" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BB7" t="n">
         <v>126</v>
@@ -1793,14 +1797,12 @@
       <c r="BC7" t="n">
         <v>126</v>
       </c>
-      <c r="BD7" t="n">
-        <v>301</v>
-      </c>
+      <c r="BD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ph8fDbM8</t>
+          <t>IN9VZckt</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1810,346 +1812,166 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>1.33</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
         <v>1.91</v>
       </c>
-      <c r="L8" t="n">
-        <v>3.4</v>
-      </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.7</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.44</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T8" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="W8" t="n">
+        <v>17</v>
+      </c>
+      <c r="X8" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>7.5</v>
       </c>
-      <c r="X8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>23</v>
-      </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX8" t="n">
         <v>19</v>
       </c>
-      <c r="AO8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX8" t="n">
+      <c r="AY8" t="n">
         <v>51</v>
       </c>
-      <c r="AY8" t="n">
-        <v>101</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>301</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>IN9VZckt</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Progreso</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Penarol</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>11</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>10</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W9" t="n">
-        <v>17</v>
-      </c>
-      <c r="X9" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ9" t="n">
         <v>251</v>
       </c>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="n">
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="n">
         <v>101</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -750,10 +750,10 @@
         <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J2" t="n">
         <v>4.75</v>
@@ -762,13 +762,13 @@
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.8</v>
@@ -795,7 +795,7 @@
         <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -816,7 +816,7 @@
         <v>4.75</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>26</v>
@@ -825,7 +825,7 @@
         <v>126</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH2" t="n">
         <v>9</v>
@@ -864,7 +864,7 @@
         <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AU2" t="n">
         <v>4</v>
@@ -876,7 +876,7 @@
         <v>41</v>
       </c>
       <c r="AX2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AY2" t="n">
         <v>126</v>
@@ -933,7 +933,7 @@
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -945,10 +945,10 @@
         <v>3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.62</v>
@@ -957,10 +957,10 @@
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
         <v>1.67</v>
@@ -978,7 +978,7 @@
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -1014,7 +1014,7 @@
         <v>11</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
         <v>29</v>
@@ -1130,7 +1130,7 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
@@ -1139,28 +1139,28 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X4" t="n">
         <v>8</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8.5</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1175,7 +1175,7 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
         <v>7.5</v>
@@ -1199,7 +1199,7 @@
         <v>51</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1208,19 +1208,19 @@
         <v>3.75</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AS4" t="n">
         <v>8</v>
@@ -1229,7 +1229,7 @@
         <v>51</v>
       </c>
       <c r="AU4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV4" t="n">
         <v>26</v>
@@ -1247,7 +1247,7 @@
         <v>201</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="inlineStr"/>
@@ -1287,19 +1287,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>3.75</v>
@@ -1317,16 +1317,16 @@
         <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
         <v>2.05</v>
@@ -1335,16 +1335,16 @@
         <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
         <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
         <v>23</v>
@@ -1353,37 +1353,37 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH5" t="n">
         <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK5" t="n">
         <v>29</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>26</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AN5" t="n">
         <v>15</v>
@@ -1398,7 +1398,7 @@
         <v>81</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AS5" t="n">
         <v>9</v>
@@ -1410,13 +1410,13 @@
         <v>4.75</v>
       </c>
       <c r="AV5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AX5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AY5" t="n">
         <v>101</v>
@@ -1425,7 +1425,7 @@
         <v>301</v>
       </c>
       <c r="BA5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB5" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,7 +1121,7 @@
         <v>2.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
@@ -1175,10 +1175,10 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1193,7 +1193,7 @@
         <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>51</v>
@@ -1217,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
         <v>3</v>
@@ -1235,7 +1235,7 @@
         <v>26</v>
       </c>
       <c r="AW4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AX4" t="n">
         <v>81</v>
@@ -1290,10 +1290,10 @@
         <v>2.55</v>
       </c>
       <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1302,7 +1302,7 @@
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1311,10 +1311,10 @@
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
         <v>2.6</v>
@@ -1329,10 +1329,10 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1341,10 +1341,10 @@
         <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
         <v>23</v>
@@ -1404,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="AT5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AU5" t="n">
         <v>4.75</v>
@@ -1422,7 +1422,7 @@
         <v>101</v>
       </c>
       <c r="AZ5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BA5" t="n">
         <v>301</v>
@@ -1651,13 +1651,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
         <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1669,10 +1669,10 @@
         <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.53</v>
@@ -1702,7 +1702,7 @@
         <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
         <v>13</v>
@@ -1732,7 +1732,7 @@
         <v>6</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
         <v>11</v>
@@ -1741,13 +1741,13 @@
         <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AN7" t="n">
         <v>19</v>
@@ -1783,7 +1783,7 @@
         <v>51</v>
       </c>
       <c r="AY7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AZ7" t="n">
         <v>301</v>
@@ -1798,182 +1798,6 @@
         <v>126</v>
       </c>
       <c r="BD7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>IN9VZckt</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Progreso</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Penarol</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>11</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W8" t="n">
-        <v>17</v>
-      </c>
-      <c r="X8" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="n">
-        <v>101</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -1121,7 +1121,7 @@
         <v>2.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
@@ -1130,7 +1130,7 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
@@ -1175,10 +1175,10 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1193,7 +1193,7 @@
         <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
         <v>51</v>
@@ -1217,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>3</v>
@@ -1235,7 +1235,7 @@
         <v>26</v>
       </c>
       <c r="AW4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AX4" t="n">
         <v>81</v>
@@ -1499,10 +1499,10 @@
         <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1651,28 +1651,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
         <v>1.53</v>
@@ -1699,19 +1699,19 @@
         <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1729,7 +1729,7 @@
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH7" t="n">
         <v>11</v>
@@ -1738,7 +1738,7 @@
         <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
         <v>26</v>
@@ -1771,13 +1771,13 @@
         <v>81</v>
       </c>
       <c r="AU7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AX7" t="n">
         <v>51</v>
@@ -1797,7 +1797,9 @@
       <c r="BC7" t="n">
         <v>126</v>
       </c>
-      <c r="BD7" t="inlineStr"/>
+      <c r="BD7" t="n">
+        <v>1250</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,129 +596,129 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0_HT</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-0_HT</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-1_HT</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-0_HT</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-1_HT</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-2_HT</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-0_HT</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1_HT</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2_HT</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-2_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_4-4_HT</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IHflOxkg</t>
+          <t>CdkDt8Jk</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,177 +728,175 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sarmiento Junin</t>
+          <t>Blooming</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.8</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.91</v>
       </c>
-      <c r="Q2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.44</v>
-      </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE2" t="n">
         <v>15</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
         <v>15</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AI2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="n">
         <v>41</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AM2" t="n">
         <v>41</v>
       </c>
-      <c r="AB2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AD2" t="n">
+      <c r="AN2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AX2" t="n">
         <v>26</v>
       </c>
-      <c r="AF2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK2" t="n">
+      <c r="AY2" t="n">
         <v>29</v>
       </c>
-      <c r="AL2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP2" t="n">
+      <c r="AZ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA2" t="n">
         <v>101</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="BB2" t="n">
         <v>201</v>
       </c>
-      <c r="AR2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>501</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>501</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>126</v>
-      </c>
+      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0tpgNd4a</t>
+          <t>d8a97mPJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -908,179 +906,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Union de Santa Fe</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.9</v>
-      </c>
       <c r="I3" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L3" t="n">
         <v>4</v>
       </c>
-      <c r="K3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.6</v>
-      </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.67</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
         <v>81</v>
       </c>
-      <c r="AG3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
+      <c r="AS3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
         <v>4.75</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AX3" t="n">
         <v>19</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AY3" t="n">
         <v>34</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AZ3" t="n">
         <v>67</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY3" t="n">
+      <c r="BA3" t="n">
         <v>101</v>
       </c>
-      <c r="AZ3" t="n">
-        <v>401</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>401</v>
-      </c>
       <c r="BB3" t="n">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CdkDt8Jk</t>
+          <t>SdZm05Hg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1095,90 +1093,90 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Blooming</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.8</v>
       </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
         <v>8</v>
       </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>12</v>
-      </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1187,78 +1185,82 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>15</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>51</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
       </c>
       <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
         <v>41</v>
       </c>
-      <c r="AM4" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AN4" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>51</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>29</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>81</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="BA4" t="n">
         <v>101</v>
       </c>
-      <c r="AZ4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC4" t="n">
         <v>126</v>
       </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>d8a97mPJ</t>
+          <t>ph8fDbM8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1268,95 +1270,95 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1365,440 +1367,76 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>1250</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP5" t="n">
         <v>34</v>
       </c>
-      <c r="AK5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP5" t="n">
+      <c r="AQ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>51</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY5" t="n">
+      <c r="BA5" t="n">
         <v>101</v>
       </c>
-      <c r="AZ5" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA5" t="n">
+      <c r="BB5" t="n">
         <v>301</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>126</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SdZm05Hg</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>BRAZIL - SERIE A BETANO</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Palmeiras</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Botafogo RJ</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB6" t="n">
         <v>126</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ph8fDbM8</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>COLOMBIA - PRIMERA A</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Millonarios</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7</v>
-      </c>
-      <c r="X7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>301</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>1250</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CdkDt8Jk</t>
+          <t>ph8fDbM8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,714 +728,172 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Blooming</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7</v>
+      </c>
+      <c r="X2" t="n">
         <v>13</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>8</v>
-      </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AI2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK2" t="n">
         <v>26</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>51</v>
-      </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>51</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>81</v>
       </c>
       <c r="BA2" t="n">
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>d8a97mPJ</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BRAZIL - SERIE A BETANO</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS3" t="n">
         <v>301</v>
       </c>
-      <c r="AT3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC3" t="n">
+      <c r="BC2" t="n">
         <v>126</v>
       </c>
-      <c r="BD3" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SdZm05Hg</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BRAZIL - SERIE A BETANO</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Palmeiras</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Botafogo RJ</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ph8fDbM8</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>COLOMBIA - PRIMERA A</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Millonarios</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7</v>
-      </c>
-      <c r="X5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD5" t="n">
+      <c r="BD2" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ph8fDbM8</t>
+          <t>ncn5KflI</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,167 +728,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="L2" t="n">
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="N2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD2" t="n">
         <v>6</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W2" t="n">
-        <v>7</v>
-      </c>
-      <c r="X2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="AE2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI2" t="n">
         <v>12</v>
       </c>
-      <c r="Z2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AJ2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX2" t="n">
         <v>19</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AY2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>67</v>
       </c>
-      <c r="AG2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>51</v>
-      </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -896,6 +896,6716 @@
       <c r="BD2" t="n">
         <v>126</v>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IHflOxkg</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Sarmiento Junin</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0tpgNd4a</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Union de Santa Fe</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Talleres Cordoba</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>401</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ukw2Lkbe</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AUSTRIA - 2. LIGA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Stripfing</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>700</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>rRWlnUeS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SA Bulo Bulo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>QRwclaLb</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Guabira</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tomayapo</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CdkDt8Jk</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Blooming</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>dfKzglAQ</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8nJEo620</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>d8a97mPJ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SdZm05Hg</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Botafogo RJ</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ph8fDbM8</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7</v>
+      </c>
+      <c r="X13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>x40mil76</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>401</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>bJldkSyJ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pANE79im</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>INLM5mMa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Oxford Utd</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>401</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>xQyO3RjC</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>l45tM86t</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pjuW15LO</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>W4SkpHgl</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N21" t="n">
+        <v>19</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W21" t="n">
+        <v>11</v>
+      </c>
+      <c r="X21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0pK6tZhD</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>10</v>
+      </c>
+      <c r="X22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SjCh4xoK</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Burton</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W23" t="n">
+        <v>11</v>
+      </c>
+      <c r="X23" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>hUDL3zAe</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Cambridge Utd</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W24" t="n">
+        <v>12</v>
+      </c>
+      <c r="X24" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>8f5RPzfE</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Exeter</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>13</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>17</v>
+      </c>
+      <c r="X25" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>EmpteY76</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>9</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>8A5F9XMa</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Wigan</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>11</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7</v>
+      </c>
+      <c r="X27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>xYeBnjDs</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Wrexham</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>9</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W28" t="n">
+        <v>7</v>
+      </c>
+      <c r="X28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EeAuXi1s</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mansfield</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>13</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8</v>
+      </c>
+      <c r="X29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EwDJUSoA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>INDIA - ISL</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Mumbai City</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>11</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>YLnqVaS1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Cambuur</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N31" t="n">
+        <v>19</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P31" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>10</v>
+      </c>
+      <c r="X31" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0Eadv45F</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Jong Utrecht</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N32" t="n">
+        <v>15</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W32" t="n">
+        <v>17</v>
+      </c>
+      <c r="X32" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>xfgzXLck</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Roda</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N33" t="n">
+        <v>15</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2</v>
+      </c>
+      <c r="W33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MZlGlqgt</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SCOTLAND - PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N34" t="n">
+        <v>10</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W34" t="n">
+        <v>9</v>
+      </c>
+      <c r="X34" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MyS7z3gR</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N35" t="n">
+        <v>15</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W35" t="n">
+        <v>9</v>
+      </c>
+      <c r="X35" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0QwKuo6e</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N36" t="n">
+        <v>8</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W36" t="n">
+        <v>7</v>
+      </c>
+      <c r="X36" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>tznSwPz8</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Rampla Juniors</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W37" t="n">
+        <v>7</v>
+      </c>
+      <c r="X37" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>UeSMa6cR</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N38" t="n">
+        <v>10</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2</v>
+      </c>
+      <c r="W38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>IN9VZckt</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>11</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J39" t="n">
+        <v>10</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N39" t="n">
+        <v>10</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W39" t="n">
+        <v>17</v>
+      </c>
+      <c r="X39" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>101</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>351</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>351</v>
+      </c>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
